--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_2_38.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_2_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3452803.348076748</v>
+        <v>3452450.370398978</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>239214.3118171988</v>
+        <v>239214.3118171996</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736543</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.9691365900565</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>43.87307501927987</v>
       </c>
       <c r="F2" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
         <v>11.94294668035388</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>113.8868234595703</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
         <v>186.7982527956746</v>
@@ -801,10 +801,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>195.9378182409833</v>
+        <v>150.251198136382</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -820,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>85.47897451654559</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>1.518793999885657</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
-        <v>194.5622966821005</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>171.0890268032919</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>0.9123525000015956</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>145.5577298436975</v>
@@ -1026,13 +1026,13 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>112.1469178121845</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>27.28336241696591</v>
       </c>
     </row>
     <row r="7">
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>50.77333445464513</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>12.59665167322035</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
-        <v>70.24309354271844</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
         <v>329.4930616586638</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>141.0598120912427</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -1212,25 +1212,25 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>47.4185016097371</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>78.11832527047109</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
@@ -1272,7 +1272,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>58.0633291268696</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>22.54853274729805</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1370,22 +1370,22 @@
         <v>276.6729386146302</v>
       </c>
       <c r="C11" t="n">
-        <v>264.6842555723119</v>
+        <v>263.5171748086272</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E11" t="n">
-        <v>277.4076971867455</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>296.5795132747226</v>
       </c>
       <c r="G11" t="n">
-        <v>298.5127811721451</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>146.3488250621016</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>57.65886129508321</v>
@@ -1421,13 +1421,13 @@
         <v>71.92652010774084</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W11" t="n">
         <v>245.4794153327662</v>
@@ -1467,7 +1467,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
-        <v>67.69846245683961</v>
+        <v>50.46601041202842</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T12" t="n">
-        <v>169.5658007508635</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U12" t="n">
         <v>216.3098444776729</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>276.6729386146302</v>
       </c>
       <c r="C14" t="n">
-        <v>264.6842555723119</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>255.6655596168399</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>277.4076971867455</v>
       </c>
       <c r="F14" t="n">
         <v>296.5795132747226</v>
@@ -1622,10 +1622,10 @@
         <v>298.5127811721451</v>
       </c>
       <c r="H14" t="n">
-        <v>157.6047880846319</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I14" t="n">
-        <v>57.6588612950832</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>71.92652010774084</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U14" t="n">
-        <v>138.9063174149371</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V14" t="n">
         <v>220.1793158548093</v>
@@ -1670,10 +1670,10 @@
         <v>245.4794153327662</v>
       </c>
       <c r="X14" t="n">
-        <v>264.7796735655128</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>276.1762713617116</v>
+        <v>70.14860652158985</v>
       </c>
     </row>
     <row r="15">
@@ -1698,13 +1698,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>110.2087629321375</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H15" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
-        <v>67.69846245683961</v>
+        <v>50.46601041202842</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>68.28964948932727</v>
+        <v>68.28964948932729</v>
       </c>
       <c r="C16" t="n">
-        <v>54.48964433472776</v>
+        <v>54.48964433472777</v>
       </c>
       <c r="D16" t="n">
-        <v>38.11100873230615</v>
+        <v>38.11100873230616</v>
       </c>
       <c r="E16" t="n">
-        <v>37.0587585880856</v>
+        <v>37.05875858808561</v>
       </c>
       <c r="F16" t="n">
-        <v>37.5256829162719</v>
+        <v>37.52568291627192</v>
       </c>
       <c r="G16" t="n">
-        <v>53.80038563761974</v>
+        <v>53.80038563761975</v>
       </c>
       <c r="H16" t="n">
-        <v>44.34875326031016</v>
+        <v>44.34875326031018</v>
       </c>
       <c r="I16" t="n">
-        <v>29.33084844513951</v>
+        <v>29.33084844513952</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.59639806355682</v>
+        <v>34.59639806355683</v>
       </c>
       <c r="S16" t="n">
-        <v>98.14249946214056</v>
+        <v>98.14249946214058</v>
       </c>
       <c r="T16" t="n">
         <v>117.4169981442692</v>
@@ -1828,7 +1828,7 @@
         <v>169.8646719595661</v>
       </c>
       <c r="X16" t="n">
-        <v>115.5097739553692</v>
+        <v>115.5097739553693</v>
       </c>
       <c r="Y16" t="n">
         <v>106.3846417114369</v>
@@ -1844,25 +1844,25 @@
         <v>223.7962415964282</v>
       </c>
       <c r="C17" t="n">
-        <v>211.80755855411</v>
+        <v>211.8075585541099</v>
       </c>
       <c r="D17" t="n">
         <v>202.7888625986379</v>
       </c>
       <c r="E17" t="n">
-        <v>224.5310001685435</v>
+        <v>224.5310001685434</v>
       </c>
       <c r="F17" t="n">
         <v>243.7028162565206</v>
       </c>
       <c r="G17" t="n">
-        <v>245.6360841539432</v>
+        <v>245.6360841539431</v>
       </c>
       <c r="H17" t="n">
         <v>163.1861991322531</v>
       </c>
       <c r="I17" t="n">
-        <v>4.782164276881218</v>
+        <v>4.78216427688119</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>19.04982308953885</v>
+        <v>19.04982308953882</v>
       </c>
       <c r="T17" t="n">
-        <v>55.80849427988821</v>
+        <v>55.80849427988818</v>
       </c>
       <c r="U17" t="n">
-        <v>86.02962039673517</v>
+        <v>86.02962039673514</v>
       </c>
       <c r="V17" t="n">
         <v>167.3026188366073</v>
@@ -1907,7 +1907,7 @@
         <v>192.6027183145642</v>
       </c>
       <c r="X17" t="n">
-        <v>211.9029765473109</v>
+        <v>211.9029765473108</v>
       </c>
       <c r="Y17" t="n">
         <v>223.2995743435096</v>
@@ -1935,7 +1935,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>127.4412149769483</v>
+        <v>110.208762932137</v>
       </c>
       <c r="H18" t="n">
         <v>98.93847887876893</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>41.95397417119292</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
         <v>151.2714921173871</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.41295247112529</v>
+        <v>15.41295247112527</v>
       </c>
       <c r="C19" t="n">
-        <v>1.612947316525776</v>
+        <v>1.612947316525748</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.92368861941776</v>
+        <v>0.9236886194177316</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>45.26580244393858</v>
+        <v>45.26580244393855</v>
       </c>
       <c r="T19" t="n">
-        <v>64.54030112606722</v>
+        <v>64.54030112606719</v>
       </c>
       <c r="U19" t="n">
         <v>118.0114745893804</v>
       </c>
       <c r="V19" t="n">
-        <v>91.82108887075088</v>
+        <v>91.82108887075086</v>
       </c>
       <c r="W19" t="n">
         <v>116.9879749413641</v>
       </c>
       <c r="X19" t="n">
-        <v>62.63307693716726</v>
+        <v>62.63307693716723</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.50794469323495</v>
+        <v>53.50794469323492</v>
       </c>
     </row>
     <row r="20">
@@ -2081,25 +2081,25 @@
         <v>223.7962415964282</v>
       </c>
       <c r="C20" t="n">
-        <v>211.80755855411</v>
+        <v>211.8075585541099</v>
       </c>
       <c r="D20" t="n">
         <v>202.7888625986379</v>
       </c>
       <c r="E20" t="n">
-        <v>224.5310001685435</v>
+        <v>224.5310001685434</v>
       </c>
       <c r="F20" t="n">
         <v>243.7028162565206</v>
       </c>
       <c r="G20" t="n">
-        <v>245.6360841539432</v>
+        <v>245.6360841539431</v>
       </c>
       <c r="H20" t="n">
         <v>163.1861991322531</v>
       </c>
       <c r="I20" t="n">
-        <v>4.782164276881218</v>
+        <v>4.78216427688119</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>19.04982308953885</v>
+        <v>19.04982308953882</v>
       </c>
       <c r="T20" t="n">
-        <v>55.80849427988821</v>
+        <v>55.80849427988818</v>
       </c>
       <c r="U20" t="n">
-        <v>86.02962039673517</v>
+        <v>86.02962039673514</v>
       </c>
       <c r="V20" t="n">
-        <v>167.302618836607</v>
+        <v>167.3026188366073</v>
       </c>
       <c r="W20" t="n">
         <v>192.6027183145642</v>
       </c>
       <c r="X20" t="n">
-        <v>211.9029765473109</v>
+        <v>211.9029765473108</v>
       </c>
       <c r="Y20" t="n">
         <v>223.2995743435096</v>
@@ -2178,7 +2178,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
-        <v>67.69846245683961</v>
+        <v>50.46601041202842</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>41.95397417119292</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
         <v>151.2714921173871</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.41295247112529</v>
+        <v>15.41295247112527</v>
       </c>
       <c r="C22" t="n">
-        <v>1.612947316525776</v>
+        <v>1.612947316525748</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.92368861941776</v>
+        <v>0.9236886194177316</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>45.26580244393858</v>
+        <v>45.26580244393855</v>
       </c>
       <c r="T22" t="n">
-        <v>64.54030112606722</v>
+        <v>64.54030112606719</v>
       </c>
       <c r="U22" t="n">
         <v>118.0114745893804</v>
       </c>
       <c r="V22" t="n">
-        <v>91.82108887075088</v>
+        <v>91.82108887075086</v>
       </c>
       <c r="W22" t="n">
         <v>116.9879749413641</v>
       </c>
       <c r="X22" t="n">
-        <v>62.63307693716726</v>
+        <v>62.63307693716723</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.50794469323495</v>
+        <v>53.50794469323492</v>
       </c>
     </row>
     <row r="23">
@@ -2318,25 +2318,25 @@
         <v>223.7962415964282</v>
       </c>
       <c r="C23" t="n">
-        <v>211.80755855411</v>
+        <v>211.8075585541099</v>
       </c>
       <c r="D23" t="n">
         <v>202.7888625986379</v>
       </c>
       <c r="E23" t="n">
-        <v>224.5310001685435</v>
+        <v>224.5310001685434</v>
       </c>
       <c r="F23" t="n">
         <v>243.7028162565206</v>
       </c>
       <c r="G23" t="n">
-        <v>245.6360841539432</v>
+        <v>245.6360841539431</v>
       </c>
       <c r="H23" t="n">
         <v>163.1861991322531</v>
       </c>
       <c r="I23" t="n">
-        <v>4.782164276881218</v>
+        <v>4.78216427688119</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>19.04982308953885</v>
+        <v>19.04982308953882</v>
       </c>
       <c r="T23" t="n">
-        <v>55.80849427988821</v>
+        <v>55.80849427988818</v>
       </c>
       <c r="U23" t="n">
-        <v>86.02962039673517</v>
+        <v>86.02962039673514</v>
       </c>
       <c r="V23" t="n">
         <v>167.3026188366073</v>
@@ -2381,7 +2381,7 @@
         <v>192.6027183145642</v>
       </c>
       <c r="X23" t="n">
-        <v>211.9029765473109</v>
+        <v>211.9029765473108</v>
       </c>
       <c r="Y23" t="n">
         <v>223.2995743435096</v>
@@ -2415,7 +2415,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>67.69846245683961</v>
+        <v>50.46601041202842</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T24" t="n">
-        <v>169.5658007508635</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U24" t="n">
         <v>216.3098444776729</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.41295247112529</v>
+        <v>15.41295247112527</v>
       </c>
       <c r="C25" t="n">
-        <v>1.612947316525776</v>
+        <v>1.612947316525748</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.92368861941776</v>
+        <v>0.9236886194177316</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>45.26580244393858</v>
+        <v>45.26580244393855</v>
       </c>
       <c r="T25" t="n">
-        <v>64.54030112606722</v>
+        <v>64.54030112606719</v>
       </c>
       <c r="U25" t="n">
         <v>118.0114745893804</v>
       </c>
       <c r="V25" t="n">
-        <v>91.82108887075088</v>
+        <v>91.82108887075086</v>
       </c>
       <c r="W25" t="n">
         <v>116.9879749413641</v>
       </c>
       <c r="X25" t="n">
-        <v>62.63307693716726</v>
+        <v>62.63307693716723</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.50794469323495</v>
+        <v>53.50794469323492</v>
       </c>
     </row>
     <row r="26">
@@ -2570,10 +2570,10 @@
         <v>285.1559963246098</v>
       </c>
       <c r="H26" t="n">
-        <v>202.7061113029197</v>
+        <v>202.7061113029189</v>
       </c>
       <c r="I26" t="n">
-        <v>44.30207644754782</v>
+        <v>44.30207644754783</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.56973526020545</v>
+        <v>58.56973526020546</v>
       </c>
       <c r="T26" t="n">
-        <v>95.32840645055481</v>
+        <v>95.32840645055482</v>
       </c>
       <c r="U26" t="n">
         <v>125.5495325674018</v>
@@ -2652,7 +2652,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133627</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2685,7 +2685,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T27" t="n">
-        <v>172.2327615101711</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U27" t="n">
         <v>216.3098444776729</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>54.93286464179189</v>
+        <v>54.93286464179191</v>
       </c>
       <c r="C28" t="n">
-        <v>41.13285948719238</v>
+        <v>41.13285948719239</v>
       </c>
       <c r="D28" t="n">
-        <v>24.75422388477077</v>
+        <v>24.75422388477078</v>
       </c>
       <c r="E28" t="n">
-        <v>23.70197374055022</v>
+        <v>23.70197374055023</v>
       </c>
       <c r="F28" t="n">
-        <v>24.16889806873652</v>
+        <v>24.16889806873654</v>
       </c>
       <c r="G28" t="n">
-        <v>40.44360079008436</v>
+        <v>40.44360079008437</v>
       </c>
       <c r="H28" t="n">
-        <v>30.99196841277478</v>
+        <v>30.9919684127748</v>
       </c>
       <c r="I28" t="n">
-        <v>15.97406359760413</v>
+        <v>15.97406359760414</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.23961321602144</v>
+        <v>21.23961321602145</v>
       </c>
       <c r="S28" t="n">
-        <v>84.78571461460518</v>
+        <v>84.7857146146052</v>
       </c>
       <c r="T28" t="n">
         <v>104.0602132967338</v>
@@ -2779,7 +2779,7 @@
         <v>102.1529891078339</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.02785686390155</v>
+        <v>93.02785686390156</v>
       </c>
     </row>
     <row r="29">
@@ -2846,7 +2846,7 @@
         <v>95.32840645055482</v>
       </c>
       <c r="U29" t="n">
-        <v>125.5495325674023</v>
+        <v>125.5495325674018</v>
       </c>
       <c r="V29" t="n">
         <v>206.8225310072739</v>
@@ -2886,7 +2886,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H30" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326558</v>
       </c>
       <c r="I30" t="n">
         <v>67.69846245683961</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
         <v>151.2714921173871</v>
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>253.1493782521352</v>
+        <v>253.1493782521351</v>
       </c>
       <c r="C32" t="n">
         <v>241.1606952098169</v>
       </c>
       <c r="D32" t="n">
-        <v>232.1419992543449</v>
+        <v>232.1419992543448</v>
       </c>
       <c r="E32" t="n">
         <v>253.8841368242504</v>
@@ -3044,10 +3044,10 @@
         <v>274.9892208096501</v>
       </c>
       <c r="H32" t="n">
-        <v>192.5393357879601</v>
+        <v>192.53933578796</v>
       </c>
       <c r="I32" t="n">
-        <v>34.13530093258819</v>
+        <v>34.13530093258811</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>48.40295974524582</v>
+        <v>48.40295974524574</v>
       </c>
       <c r="T32" t="n">
-        <v>85.16163093559518</v>
+        <v>85.1616309355951</v>
       </c>
       <c r="U32" t="n">
         <v>115.3827570524421</v>
       </c>
       <c r="V32" t="n">
-        <v>196.6557554923143</v>
+        <v>196.6557554923142</v>
       </c>
       <c r="W32" t="n">
-        <v>221.9558549702712</v>
+        <v>221.9558549702711</v>
       </c>
       <c r="X32" t="n">
-        <v>241.2561132030178</v>
+        <v>241.2561132030177</v>
       </c>
       <c r="Y32" t="n">
-        <v>252.6527109992166</v>
+        <v>252.6527109992165</v>
       </c>
     </row>
     <row r="33">
@@ -3117,7 +3117,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F33" t="n">
-        <v>133.3468600696244</v>
+        <v>118.7813687841211</v>
       </c>
       <c r="G33" t="n">
         <v>127.4412149769483</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
         <v>151.2714921173871</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>44.76608912683227</v>
+        <v>44.76608912683218</v>
       </c>
       <c r="C34" t="n">
-        <v>30.96608397223275</v>
+        <v>30.96608397223267</v>
       </c>
       <c r="D34" t="n">
-        <v>14.58744836981114</v>
+        <v>14.58744836981106</v>
       </c>
       <c r="E34" t="n">
-        <v>13.53519822559059</v>
+        <v>13.53519822559051</v>
       </c>
       <c r="F34" t="n">
-        <v>14.0021225537769</v>
+        <v>14.00212255377681</v>
       </c>
       <c r="G34" t="n">
-        <v>30.27682527512474</v>
+        <v>30.27682527512465</v>
       </c>
       <c r="H34" t="n">
-        <v>20.82519289781516</v>
+        <v>20.82519289781507</v>
       </c>
       <c r="I34" t="n">
-        <v>5.807288082644504</v>
+        <v>5.807288082644419</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>11.07283770106181</v>
+        <v>11.07283770106173</v>
       </c>
       <c r="S34" t="n">
-        <v>74.61893909964556</v>
+        <v>74.61893909964547</v>
       </c>
       <c r="T34" t="n">
-        <v>93.8934377817742</v>
+        <v>93.89343778177411</v>
       </c>
       <c r="U34" t="n">
-        <v>147.3646112450874</v>
+        <v>147.3646112450873</v>
       </c>
       <c r="V34" t="n">
-        <v>121.1742255264579</v>
+        <v>121.1742255264578</v>
       </c>
       <c r="W34" t="n">
-        <v>146.3411115970711</v>
+        <v>146.341111597071</v>
       </c>
       <c r="X34" t="n">
-        <v>91.98621359287424</v>
+        <v>91.98621359287415</v>
       </c>
       <c r="Y34" t="n">
-        <v>82.86108134894192</v>
+        <v>82.86108134894184</v>
       </c>
     </row>
     <row r="35">
@@ -3351,7 +3351,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E36" t="n">
-        <v>145.5577298436975</v>
+        <v>130.9922385581937</v>
       </c>
       <c r="F36" t="n">
         <v>133.3468600696244</v>
@@ -3396,7 +3396,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T36" t="n">
-        <v>172.2327615101715</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U36" t="n">
         <v>216.3098444776729</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>255.6521207349866</v>
+        <v>255.6521207349864</v>
       </c>
       <c r="C41" t="n">
-        <v>234.817074797047</v>
+        <v>243.6634376926681</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>234.6447417371961</v>
       </c>
       <c r="E41" t="n">
-        <v>256.3868793071018</v>
+        <v>256.3868793071017</v>
       </c>
       <c r="F41" t="n">
-        <v>275.558695395079</v>
+        <v>114.5174757839537</v>
       </c>
       <c r="G41" t="n">
-        <v>277.4919632925015</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>195.0420782708113</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>50.90570222809723</v>
+        <v>50.90570222809703</v>
       </c>
       <c r="T41" t="n">
-        <v>87.66437341844659</v>
+        <v>87.66437341844639</v>
       </c>
       <c r="U41" t="n">
-        <v>117.8854995352935</v>
+        <v>117.8854995352933</v>
       </c>
       <c r="V41" t="n">
-        <v>199.1584979751657</v>
+        <v>199.1584979751655</v>
       </c>
       <c r="W41" t="n">
-        <v>224.4585974531226</v>
+        <v>224.4585974531224</v>
       </c>
       <c r="X41" t="n">
-        <v>243.7588556858692</v>
+        <v>243.758855685869</v>
       </c>
       <c r="Y41" t="n">
-        <v>255.155453482068</v>
+        <v>255.1554534820678</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H42" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326568</v>
       </c>
       <c r="I42" t="n">
-        <v>53.13297117133636</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.26883160968367</v>
+        <v>47.26883160968347</v>
       </c>
       <c r="C43" t="n">
-        <v>33.46882645508416</v>
+        <v>33.46882645508396</v>
       </c>
       <c r="D43" t="n">
-        <v>17.09019085266254</v>
+        <v>17.09019085266235</v>
       </c>
       <c r="E43" t="n">
-        <v>16.03794070844199</v>
+        <v>16.03794070844179</v>
       </c>
       <c r="F43" t="n">
-        <v>16.5048650366283</v>
+        <v>16.5048650366281</v>
       </c>
       <c r="G43" t="n">
-        <v>32.77956775797614</v>
+        <v>32.77956775797594</v>
       </c>
       <c r="H43" t="n">
-        <v>23.32793538066656</v>
+        <v>23.32793538066636</v>
       </c>
       <c r="I43" t="n">
-        <v>8.310030565495907</v>
+        <v>8.310030565495708</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>13.57558018391322</v>
+        <v>13.57558018391302</v>
       </c>
       <c r="S43" t="n">
-        <v>77.12168158249696</v>
+        <v>77.12168158249676</v>
       </c>
       <c r="T43" t="n">
-        <v>96.3961802646256</v>
+        <v>96.3961802646254</v>
       </c>
       <c r="U43" t="n">
-        <v>149.8673537279388</v>
+        <v>149.8673537279386</v>
       </c>
       <c r="V43" t="n">
-        <v>123.6769680093093</v>
+        <v>123.6769680093091</v>
       </c>
       <c r="W43" t="n">
-        <v>148.8438540799225</v>
+        <v>148.8438540799223</v>
       </c>
       <c r="X43" t="n">
-        <v>94.48895607572564</v>
+        <v>94.48895607572544</v>
       </c>
       <c r="Y43" t="n">
-        <v>85.36382383179333</v>
+        <v>85.36382383179313</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>255.6521207349866</v>
+        <v>255.6521207349864</v>
       </c>
       <c r="C44" t="n">
-        <v>243.6634376926683</v>
+        <v>243.6634376926681</v>
       </c>
       <c r="D44" t="n">
-        <v>234.6447417371963</v>
+        <v>234.6447417371961</v>
       </c>
       <c r="E44" t="n">
-        <v>256.3868793071018</v>
+        <v>95.34565969597658</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>275.5586953950788</v>
       </c>
       <c r="G44" t="n">
-        <v>77.87943236851203</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>195.0420782708115</v>
+        <v>195.0420782708113</v>
       </c>
       <c r="I44" t="n">
-        <v>36.6380434154396</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>50.90570222809723</v>
+        <v>50.90570222809703</v>
       </c>
       <c r="T44" t="n">
-        <v>87.66437341844659</v>
+        <v>87.66437341844639</v>
       </c>
       <c r="U44" t="n">
-        <v>117.8854995352935</v>
+        <v>117.8854995352933</v>
       </c>
       <c r="V44" t="n">
-        <v>199.1584979751657</v>
+        <v>199.1584979751655</v>
       </c>
       <c r="W44" t="n">
-        <v>224.4585974531226</v>
+        <v>224.4585974531224</v>
       </c>
       <c r="X44" t="n">
-        <v>243.7588556858692</v>
+        <v>243.758855685869</v>
       </c>
       <c r="Y44" t="n">
-        <v>255.155453482068</v>
+        <v>255.1554534820678</v>
       </c>
     </row>
     <row r="45">
@@ -4059,7 +4059,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D45" t="n">
-        <v>122.8847593541863</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E45" t="n">
         <v>145.5577298436975</v>
@@ -4074,7 +4074,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
-        <v>67.69846245683961</v>
+        <v>53.1329711713359</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.26883160968367</v>
+        <v>47.26883160968347</v>
       </c>
       <c r="C46" t="n">
-        <v>33.46882645508416</v>
+        <v>33.46882645508396</v>
       </c>
       <c r="D46" t="n">
-        <v>17.09019085266254</v>
+        <v>17.09019085266235</v>
       </c>
       <c r="E46" t="n">
-        <v>16.03794070844199</v>
+        <v>16.03794070844179</v>
       </c>
       <c r="F46" t="n">
-        <v>16.5048650366283</v>
+        <v>16.5048650366281</v>
       </c>
       <c r="G46" t="n">
-        <v>32.77956775797614</v>
+        <v>32.77956775797594</v>
       </c>
       <c r="H46" t="n">
-        <v>23.32793538066656</v>
+        <v>23.32793538066636</v>
       </c>
       <c r="I46" t="n">
-        <v>8.310030565495907</v>
+        <v>8.310030565495708</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>13.57558018391322</v>
+        <v>13.57558018391302</v>
       </c>
       <c r="S46" t="n">
-        <v>77.12168158249696</v>
+        <v>77.12168158249676</v>
       </c>
       <c r="T46" t="n">
-        <v>96.3961802646256</v>
+        <v>96.3961802646254</v>
       </c>
       <c r="U46" t="n">
-        <v>149.8673537279388</v>
+        <v>149.8673537279386</v>
       </c>
       <c r="V46" t="n">
-        <v>123.6769680093093</v>
+        <v>123.6769680093091</v>
       </c>
       <c r="W46" t="n">
-        <v>148.8438540799225</v>
+        <v>148.8438540799223</v>
       </c>
       <c r="X46" t="n">
-        <v>94.48895607572564</v>
+        <v>94.48895607572544</v>
       </c>
       <c r="Y46" t="n">
-        <v>85.36382383179333</v>
+        <v>85.36382383179313</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1219.853037363815</v>
+        <v>105.3711472766537</v>
       </c>
       <c r="C2" t="n">
-        <v>837.9192786966222</v>
+        <v>105.3711472766537</v>
       </c>
       <c r="D2" t="n">
-        <v>465.0953139238458</v>
+        <v>105.3711472766537</v>
       </c>
       <c r="E2" t="n">
-        <v>465.0953139238458</v>
+        <v>61.0549098834417</v>
       </c>
       <c r="F2" t="n">
-        <v>50.9441232340161</v>
+        <v>50.94412323401608</v>
       </c>
       <c r="G2" t="n">
-        <v>38.88054072860814</v>
+        <v>38.88054072860811</v>
       </c>
       <c r="H2" t="n">
-        <v>38.88054072860814</v>
+        <v>38.88054072860811</v>
       </c>
       <c r="I2" t="n">
-        <v>38.88054072860814</v>
+        <v>38.88054072860811</v>
       </c>
       <c r="J2" t="n">
         <v>110.8790850014138</v>
       </c>
       <c r="K2" t="n">
-        <v>196.9774037892329</v>
+        <v>351.0194570461965</v>
       </c>
       <c r="L2" t="n">
-        <v>544.8627768741792</v>
+        <v>698.9048301311427</v>
       </c>
       <c r="M2" t="n">
-        <v>938.1019431272671</v>
+        <v>938.1019431272657</v>
       </c>
       <c r="N2" t="n">
-        <v>1316.433301814983</v>
+        <v>1316.433301814981</v>
       </c>
       <c r="O2" t="n">
-        <v>1621.437886287817</v>
+        <v>1621.437886287815</v>
       </c>
       <c r="P2" t="n">
-        <v>1849.59478274387</v>
+        <v>1849.594782743869</v>
       </c>
       <c r="Q2" t="n">
-        <v>1944.027036430407</v>
+        <v>1944.027036430406</v>
       </c>
       <c r="R2" t="n">
-        <v>1944.027036430407</v>
+        <v>1853.388749926259</v>
       </c>
       <c r="S2" t="n">
-        <v>1756.798061060761</v>
+        <v>1666.159774556613</v>
       </c>
       <c r="T2" t="n">
-        <v>1756.798061060761</v>
+        <v>1441.800828287624</v>
       </c>
       <c r="U2" t="n">
-        <v>1756.798061060761</v>
+        <v>1186.915492001618</v>
       </c>
       <c r="V2" t="n">
-        <v>1756.798061060761</v>
+        <v>849.9362178975593</v>
       </c>
       <c r="W2" t="n">
-        <v>1756.798061060761</v>
+        <v>487.4012877551604</v>
       </c>
       <c r="X2" t="n">
-        <v>1756.798061060761</v>
+        <v>105.3711472766537</v>
       </c>
       <c r="Y2" t="n">
-        <v>1363.256205636599</v>
+        <v>105.3711472766537</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>402.2406962087512</v>
+        <v>702.7830059775844</v>
       </c>
       <c r="C3" t="n">
-        <v>402.2406962087512</v>
+        <v>541.0793332185391</v>
       </c>
       <c r="D3" t="n">
         <v>402.2406962087512</v>
@@ -4401,58 +4401,58 @@
         <v>138.8183981819101</v>
       </c>
       <c r="H3" t="n">
-        <v>38.88054072860814</v>
+        <v>38.88054072860811</v>
       </c>
       <c r="I3" t="n">
-        <v>38.88054072860814</v>
+        <v>38.88054072860811</v>
       </c>
       <c r="J3" t="n">
-        <v>99.13468726171428</v>
+        <v>99.13468726171425</v>
       </c>
       <c r="K3" t="n">
         <v>328.6252398219029</v>
       </c>
       <c r="L3" t="n">
-        <v>694.4470849920185</v>
+        <v>679.6377341216576</v>
       </c>
       <c r="M3" t="n">
-        <v>1175.593776508544</v>
+        <v>1160.784425638183</v>
       </c>
       <c r="N3" t="n">
-        <v>1249.731166370559</v>
+        <v>1641.931117154708</v>
       </c>
       <c r="O3" t="n">
-        <v>1641.93111715471</v>
+        <v>1641.931117154708</v>
       </c>
       <c r="P3" t="n">
-        <v>1944.027036430407</v>
+        <v>1944.027036430406</v>
       </c>
       <c r="Q3" t="n">
-        <v>1944.027036430407</v>
+        <v>1944.027036430406</v>
       </c>
       <c r="R3" t="n">
-        <v>1944.027036430407</v>
+        <v>1884.242767525351</v>
       </c>
       <c r="S3" t="n">
-        <v>1828.9898410167</v>
+        <v>1731.443280538092</v>
       </c>
       <c r="T3" t="n">
-        <v>1640.304737182685</v>
+        <v>1542.758176704077</v>
       </c>
       <c r="U3" t="n">
-        <v>1421.809944780995</v>
+        <v>1324.263384302387</v>
       </c>
       <c r="V3" t="n">
-        <v>1193.414322229329</v>
+        <v>1095.867761750721</v>
       </c>
       <c r="W3" t="n">
-        <v>952.0984534626386</v>
+        <v>854.5518929840308</v>
       </c>
       <c r="X3" t="n">
-        <v>754.1814653404332</v>
+        <v>702.7830059775844</v>
       </c>
       <c r="Y3" t="n">
-        <v>561.660138990012</v>
+        <v>702.7830059775844</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>337.7608327902195</v>
+        <v>38.88054072860811</v>
       </c>
       <c r="C4" t="n">
-        <v>337.7608327902195</v>
+        <v>38.88054072860811</v>
       </c>
       <c r="D4" t="n">
-        <v>251.4184342886583</v>
+        <v>38.88054072860811</v>
       </c>
       <c r="E4" t="n">
-        <v>251.4184342886583</v>
+        <v>38.88054072860811</v>
       </c>
       <c r="F4" t="n">
-        <v>98.93777931443542</v>
+        <v>38.88054072860811</v>
       </c>
       <c r="G4" t="n">
-        <v>98.93777931443542</v>
+        <v>38.88054072860811</v>
       </c>
       <c r="H4" t="n">
-        <v>98.93777931443542</v>
+        <v>38.88054072860811</v>
       </c>
       <c r="I4" t="n">
-        <v>98.93777931443542</v>
+        <v>38.88054072860811</v>
       </c>
       <c r="J4" t="n">
-        <v>38.88054072860814</v>
+        <v>38.88054072860811</v>
       </c>
       <c r="K4" t="n">
-        <v>72.48472847325155</v>
+        <v>72.48472847325152</v>
       </c>
       <c r="L4" t="n">
-        <v>173.0918078735111</v>
+        <v>173.091807873511</v>
       </c>
       <c r="M4" t="n">
-        <v>291.0853140011128</v>
+        <v>291.0853140011127</v>
       </c>
       <c r="N4" t="n">
-        <v>409.5076557507132</v>
+        <v>409.5076557507131</v>
       </c>
       <c r="O4" t="n">
         <v>507.9713022464028</v>
       </c>
       <c r="P4" t="n">
-        <v>570.9397859745407</v>
+        <v>570.9397859745405</v>
       </c>
       <c r="Q4" t="n">
-        <v>570.9397859745407</v>
+        <v>532.4024446282295</v>
       </c>
       <c r="R4" t="n">
-        <v>570.9397859745407</v>
+        <v>532.4024446282295</v>
       </c>
       <c r="S4" t="n">
-        <v>570.9397859745407</v>
+        <v>532.4024446282295</v>
       </c>
       <c r="T4" t="n">
-        <v>337.7608327902195</v>
+        <v>530.8683092748097</v>
       </c>
       <c r="U4" t="n">
-        <v>337.7608327902195</v>
+        <v>530.8683092748097</v>
       </c>
       <c r="V4" t="n">
-        <v>337.7608327902195</v>
+        <v>270.1330048332323</v>
       </c>
       <c r="W4" t="n">
-        <v>337.7608327902195</v>
+        <v>270.1330048332323</v>
       </c>
       <c r="X4" t="n">
-        <v>337.7608327902195</v>
+        <v>38.88054072860811</v>
       </c>
       <c r="Y4" t="n">
-        <v>337.7608327902195</v>
+        <v>38.88054072860811</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1549.983496912388</v>
+        <v>628.6578285685389</v>
       </c>
       <c r="C5" t="n">
-        <v>1549.983496912388</v>
+        <v>628.6578285685389</v>
       </c>
       <c r="D5" t="n">
-        <v>1549.983496912388</v>
+        <v>628.6578285685389</v>
       </c>
       <c r="E5" t="n">
-        <v>1155.197777018495</v>
+        <v>233.8721086746457</v>
       </c>
       <c r="F5" t="n">
-        <v>741.0465863286649</v>
+        <v>223.7613220252201</v>
       </c>
       <c r="G5" t="n">
-        <v>544.5190139225028</v>
+        <v>211.6977395198121</v>
       </c>
       <c r="H5" t="n">
         <v>211.6977395198121</v>
       </c>
       <c r="I5" t="n">
-        <v>38.88054072860814</v>
+        <v>38.88054072860811</v>
       </c>
       <c r="J5" t="n">
         <v>110.8790850014138</v>
       </c>
       <c r="K5" t="n">
-        <v>351.0194570461966</v>
+        <v>351.0194570461965</v>
       </c>
       <c r="L5" t="n">
-        <v>544.8627768741792</v>
+        <v>698.9048301311427</v>
       </c>
       <c r="M5" t="n">
-        <v>938.1019431272671</v>
+        <v>938.1019431272657</v>
       </c>
       <c r="N5" t="n">
-        <v>1316.433301814983</v>
+        <v>1316.433301814981</v>
       </c>
       <c r="O5" t="n">
-        <v>1621.437886287817</v>
+        <v>1621.437886287815</v>
       </c>
       <c r="P5" t="n">
-        <v>1849.59478274387</v>
+        <v>1849.594782743869</v>
       </c>
       <c r="Q5" t="n">
-        <v>1944.027036430407</v>
+        <v>1944.027036430406</v>
       </c>
       <c r="R5" t="n">
-        <v>1944.027036430407</v>
+        <v>1853.388749926259</v>
       </c>
       <c r="S5" t="n">
-        <v>1944.027036430407</v>
+        <v>1853.388749926259</v>
       </c>
       <c r="T5" t="n">
-        <v>1944.027036430407</v>
+        <v>1629.02980365727</v>
       </c>
       <c r="U5" t="n">
-        <v>1944.027036430407</v>
+        <v>1374.144467371264</v>
       </c>
       <c r="V5" t="n">
-        <v>1944.027036430407</v>
+        <v>1373.222899189444</v>
       </c>
       <c r="W5" t="n">
-        <v>1944.027036430407</v>
+        <v>1010.687969047045</v>
       </c>
       <c r="X5" t="n">
-        <v>1944.027036430407</v>
+        <v>628.6578285685389</v>
       </c>
       <c r="Y5" t="n">
-        <v>1944.027036430407</v>
+        <v>628.6578285685389</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>849.8110159207132</v>
+        <v>710.9723789109253</v>
       </c>
       <c r="C6" t="n">
-        <v>688.1073431616679</v>
+        <v>549.26870615188</v>
       </c>
       <c r="D6" t="n">
         <v>549.26870615188</v>
@@ -4638,58 +4638,58 @@
         <v>138.8183981819101</v>
       </c>
       <c r="H6" t="n">
-        <v>38.88054072860814</v>
+        <v>38.88054072860811</v>
       </c>
       <c r="I6" t="n">
-        <v>38.88054072860814</v>
+        <v>38.88054072860811</v>
       </c>
       <c r="J6" t="n">
-        <v>99.13468726171428</v>
+        <v>99.13468726171425</v>
       </c>
       <c r="K6" t="n">
-        <v>99.13468726171428</v>
+        <v>328.6252398219029</v>
       </c>
       <c r="L6" t="n">
-        <v>464.9565324318299</v>
+        <v>610.8128450684378</v>
       </c>
       <c r="M6" t="n">
-        <v>946.1032239483557</v>
+        <v>1091.959536584963</v>
       </c>
       <c r="N6" t="n">
-        <v>1091.959536584965</v>
+        <v>1091.959536584963</v>
       </c>
       <c r="O6" t="n">
-        <v>1484.159487369115</v>
+        <v>1484.159487369114</v>
       </c>
       <c r="P6" t="n">
-        <v>1786.255406644813</v>
+        <v>1786.255406644811</v>
       </c>
       <c r="Q6" t="n">
-        <v>1944.027036430407</v>
+        <v>1944.027036430406</v>
       </c>
       <c r="R6" t="n">
-        <v>1884.242767525353</v>
+        <v>1884.242767525351</v>
       </c>
       <c r="S6" t="n">
-        <v>1731.443280538093</v>
+        <v>1731.443280538092</v>
       </c>
       <c r="T6" t="n">
-        <v>1618.16356557629</v>
+        <v>1542.758176704077</v>
       </c>
       <c r="U6" t="n">
-        <v>1399.668773174601</v>
+        <v>1324.263384302387</v>
       </c>
       <c r="V6" t="n">
-        <v>1399.668773174601</v>
+        <v>1095.867761750721</v>
       </c>
       <c r="W6" t="n">
-        <v>1399.668773174601</v>
+        <v>1095.867761750721</v>
       </c>
       <c r="X6" t="n">
-        <v>1201.751785052395</v>
+        <v>897.9507736285153</v>
       </c>
       <c r="Y6" t="n">
-        <v>1009.230458701974</v>
+        <v>870.3918216921861</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>570.9397859745407</v>
+        <v>38.88054072860811</v>
       </c>
       <c r="C7" t="n">
-        <v>570.9397859745407</v>
+        <v>38.88054072860811</v>
       </c>
       <c r="D7" t="n">
-        <v>570.9397859745407</v>
+        <v>38.88054072860811</v>
       </c>
       <c r="E7" t="n">
-        <v>519.6535895557072</v>
+        <v>38.88054072860811</v>
       </c>
       <c r="F7" t="n">
-        <v>367.1729345814844</v>
+        <v>38.88054072860811</v>
       </c>
       <c r="G7" t="n">
-        <v>198.2531859493343</v>
+        <v>38.88054072860811</v>
       </c>
       <c r="H7" t="n">
-        <v>38.88054072860814</v>
+        <v>38.88054072860811</v>
       </c>
       <c r="I7" t="n">
-        <v>38.88054072860814</v>
+        <v>38.88054072860811</v>
       </c>
       <c r="J7" t="n">
-        <v>38.88054072860814</v>
+        <v>38.88054072860811</v>
       </c>
       <c r="K7" t="n">
-        <v>72.48472847325155</v>
+        <v>72.48472847325152</v>
       </c>
       <c r="L7" t="n">
-        <v>173.0918078735111</v>
+        <v>173.091807873511</v>
       </c>
       <c r="M7" t="n">
-        <v>291.0853140011128</v>
+        <v>291.0853140011127</v>
       </c>
       <c r="N7" t="n">
-        <v>409.5076557507132</v>
+        <v>409.5076557507131</v>
       </c>
       <c r="O7" t="n">
         <v>507.9713022464028</v>
       </c>
       <c r="P7" t="n">
-        <v>570.9397859745407</v>
+        <v>570.9397859745405</v>
       </c>
       <c r="Q7" t="n">
-        <v>570.9397859745407</v>
+        <v>570.9397859745405</v>
       </c>
       <c r="R7" t="n">
-        <v>570.9397859745407</v>
+        <v>558.2158953955301</v>
       </c>
       <c r="S7" t="n">
-        <v>570.9397859745407</v>
+        <v>558.2158953955301</v>
       </c>
       <c r="T7" t="n">
-        <v>570.9397859745407</v>
+        <v>325.036942211209</v>
       </c>
       <c r="U7" t="n">
-        <v>570.9397859745407</v>
+        <v>325.036942211209</v>
       </c>
       <c r="V7" t="n">
-        <v>570.9397859745407</v>
+        <v>325.036942211209</v>
       </c>
       <c r="W7" t="n">
-        <v>570.9397859745407</v>
+        <v>38.88054072860811</v>
       </c>
       <c r="X7" t="n">
-        <v>570.9397859745407</v>
+        <v>38.88054072860811</v>
       </c>
       <c r="Y7" t="n">
-        <v>570.9397859745407</v>
+        <v>38.88054072860811</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>455.9089368934352</v>
+        <v>397.0198996587235</v>
       </c>
       <c r="C8" t="n">
-        <v>455.9089368934352</v>
+        <v>397.0198996587235</v>
       </c>
       <c r="D8" t="n">
-        <v>455.9089368934352</v>
+        <v>397.0198996587235</v>
       </c>
       <c r="E8" t="n">
-        <v>455.9089368934352</v>
+        <v>397.0198996587235</v>
       </c>
       <c r="F8" t="n">
-        <v>445.7981502440096</v>
+        <v>386.9091130092979</v>
       </c>
       <c r="G8" t="n">
         <v>374.84553050389</v>
@@ -4826,28 +4826,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>1823.345543186168</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T8" t="n">
-        <v>1823.345543186168</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U8" t="n">
-        <v>1568.460206900163</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="V8" t="n">
-        <v>1231.480932796104</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="W8" t="n">
-        <v>1231.480932796104</v>
+        <v>1327.089953278928</v>
       </c>
       <c r="X8" t="n">
-        <v>849.4507923175972</v>
+        <v>1184.605294600905</v>
       </c>
       <c r="Y8" t="n">
-        <v>455.9089368934352</v>
+        <v>791.0634391767427</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>521.6641732647531</v>
+        <v>703.195773126389</v>
       </c>
       <c r="C9" t="n">
-        <v>521.6641732647531</v>
+        <v>541.4921003673437</v>
       </c>
       <c r="D9" t="n">
-        <v>521.6641732647531</v>
+        <v>402.6534633575558</v>
       </c>
       <c r="E9" t="n">
-        <v>473.7666968912813</v>
+        <v>255.625453414427</v>
       </c>
       <c r="F9" t="n">
-        <v>339.0728988411556</v>
+        <v>120.9316553643013</v>
       </c>
       <c r="G9" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>271.5148086613879</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L9" t="n">
-        <v>637.3366538315036</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M9" t="n">
-        <v>1122.37000734173</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N9" t="n">
-        <v>1633.635653464852</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O9" t="n">
-        <v>2025.835604249003</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P9" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>1948.413318072701</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T9" t="n">
-        <v>1759.728214238687</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U9" t="n">
-        <v>1541.233421836997</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V9" t="n">
-        <v>1312.837799285331</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W9" t="n">
-        <v>1071.521930518641</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="X9" t="n">
-        <v>873.6049423964351</v>
+        <v>1055.136542258071</v>
       </c>
       <c r="Y9" t="n">
-        <v>681.083616046014</v>
+        <v>862.6152159076499</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D10" t="n">
-        <v>515.4336739462533</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E10" t="n">
-        <v>363.4246597075721</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
-        <v>210.9440047333492</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G10" t="n">
         <v>42.02425610119923</v>
@@ -4981,31 +4981,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="S10" t="n">
-        <v>574.0835013471317</v>
+        <v>512.7698642964792</v>
       </c>
       <c r="T10" t="n">
-        <v>574.0835013471317</v>
+        <v>512.7698642964792</v>
       </c>
       <c r="U10" t="n">
-        <v>574.0835013471317</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="V10" t="n">
-        <v>574.0835013471317</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="W10" t="n">
-        <v>574.0835013471317</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="X10" t="n">
-        <v>574.0835013471317</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="Y10" t="n">
-        <v>574.0835013471317</v>
+        <v>225.5796247855791</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1405.785023647451</v>
+        <v>933.2892412556969</v>
       </c>
       <c r="C11" t="n">
-        <v>1138.427189736025</v>
+        <v>667.1102768025381</v>
       </c>
       <c r="D11" t="n">
-        <v>1138.427189736025</v>
+        <v>408.862236785528</v>
       </c>
       <c r="E11" t="n">
-        <v>858.2173945978984</v>
+        <v>408.862236785528</v>
       </c>
       <c r="F11" t="n">
-        <v>558.6421286638351</v>
+        <v>109.2869708514646</v>
       </c>
       <c r="G11" t="n">
-        <v>257.1140668737895</v>
+        <v>109.2869708514646</v>
       </c>
       <c r="H11" t="n">
         <v>109.2869708514646</v>
       </c>
       <c r="I11" t="n">
-        <v>51.04569681602705</v>
+        <v>51.04569681602704</v>
       </c>
       <c r="J11" t="n">
         <v>123.0442410888327</v>
@@ -5045,22 +5045,22 @@
         <v>363.1846131336155</v>
       </c>
       <c r="L11" t="n">
-        <v>711.0699862185618</v>
+        <v>823.3658500716883</v>
       </c>
       <c r="M11" t="n">
-        <v>1186.01087668842</v>
+        <v>1328.900880177903</v>
       </c>
       <c r="N11" t="n">
-        <v>1676.638099229262</v>
+        <v>1788.933963082388</v>
       </c>
       <c r="O11" t="n">
-        <v>2093.938547555223</v>
+        <v>2093.938547555222</v>
       </c>
       <c r="P11" t="n">
-        <v>2434.391307864403</v>
+        <v>2322.095444011276</v>
       </c>
       <c r="Q11" t="n">
-        <v>2528.82356155094</v>
+        <v>2528.823561550939</v>
       </c>
       <c r="R11" t="n">
         <v>2552.284840801352</v>
@@ -5069,22 +5069,22 @@
         <v>2479.631790187473</v>
       </c>
       <c r="T11" t="n">
-        <v>2479.631790187473</v>
+        <v>2369.848768674251</v>
       </c>
       <c r="U11" t="n">
-        <v>2479.631790187473</v>
+        <v>2229.539357144011</v>
       </c>
       <c r="V11" t="n">
-        <v>2479.631790187473</v>
+        <v>2007.136007795719</v>
       </c>
       <c r="W11" t="n">
-        <v>2231.67278480084</v>
+        <v>1759.177002409086</v>
       </c>
       <c r="X11" t="n">
-        <v>1964.2185690781</v>
+        <v>1491.722786686346</v>
       </c>
       <c r="Y11" t="n">
-        <v>1685.252638409704</v>
+        <v>1212.75685601795</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>930.3584573180711</v>
+        <v>912.95194010109</v>
       </c>
       <c r="C12" t="n">
-        <v>768.6547845590259</v>
+        <v>751.2482673420448</v>
       </c>
       <c r="D12" t="n">
-        <v>629.8161475492379</v>
+        <v>612.4096303322568</v>
       </c>
       <c r="E12" t="n">
-        <v>482.7881376061091</v>
+        <v>465.381620389128</v>
       </c>
       <c r="F12" t="n">
-        <v>348.0943395559834</v>
+        <v>330.6878223390024</v>
       </c>
       <c r="G12" t="n">
-        <v>219.365839579268</v>
+        <v>201.959322362287</v>
       </c>
       <c r="H12" t="n">
-        <v>119.4279821259661</v>
+        <v>102.021464908985</v>
       </c>
       <c r="I12" t="n">
-        <v>51.04569681602705</v>
+        <v>51.04569681602704</v>
       </c>
       <c r="J12" t="n">
         <v>111.2998433491332</v>
       </c>
       <c r="K12" t="n">
-        <v>340.7903959093219</v>
+        <v>340.7903959093218</v>
       </c>
       <c r="L12" t="n">
-        <v>706.6122410794376</v>
+        <v>706.6122410794375</v>
       </c>
       <c r="M12" t="n">
         <v>1191.645594589664</v>
@@ -5136,7 +5136,7 @@
         <v>2095.111191496937</v>
       </c>
       <c r="P12" t="n">
-        <v>2397.207110772635</v>
+        <v>2394.513211015758</v>
       </c>
       <c r="Q12" t="n">
         <v>2552.284840801352</v>
@@ -5148,22 +5148,22 @@
         <v>2339.701084909038</v>
       </c>
       <c r="T12" t="n">
-        <v>2168.422498292005</v>
+        <v>2151.015981075023</v>
       </c>
       <c r="U12" t="n">
-        <v>1949.927705890315</v>
+        <v>1932.521188673333</v>
       </c>
       <c r="V12" t="n">
-        <v>1721.532083338649</v>
+        <v>1704.125566121667</v>
       </c>
       <c r="W12" t="n">
-        <v>1480.216214571959</v>
+        <v>1462.809697354977</v>
       </c>
       <c r="X12" t="n">
-        <v>1282.299226449753</v>
+        <v>1264.892709232772</v>
       </c>
       <c r="Y12" t="n">
-        <v>1089.777900099332</v>
+        <v>1072.371382882351</v>
       </c>
     </row>
     <row r="13">
@@ -5176,25 +5176,25 @@
         <v>348.6871936993207</v>
       </c>
       <c r="C13" t="n">
-        <v>293.6471489167674</v>
+        <v>293.6471489167675</v>
       </c>
       <c r="D13" t="n">
-        <v>255.1511805002965</v>
+        <v>255.1511805002967</v>
       </c>
       <c r="E13" t="n">
-        <v>217.7180910173818</v>
+        <v>217.7180910173819</v>
       </c>
       <c r="F13" t="n">
-        <v>179.8133607989253</v>
+        <v>179.8133607989255</v>
       </c>
       <c r="G13" t="n">
         <v>125.4695369225419</v>
       </c>
       <c r="H13" t="n">
-        <v>80.67281645758213</v>
+        <v>80.67281645758214</v>
       </c>
       <c r="I13" t="n">
-        <v>51.04569681602705</v>
+        <v>51.04569681602704</v>
       </c>
       <c r="J13" t="n">
         <v>104.4794611311843</v>
@@ -5203,13 +5203,13 @@
         <v>250.3795127289544</v>
       </c>
       <c r="L13" t="n">
-        <v>463.2824559823406</v>
+        <v>463.2824559823405</v>
       </c>
       <c r="M13" t="n">
         <v>693.5718259630689</v>
       </c>
       <c r="N13" t="n">
-        <v>924.2900315657959</v>
+        <v>924.290031565796</v>
       </c>
       <c r="O13" t="n">
         <v>1135.049541914612</v>
@@ -5230,19 +5230,19 @@
         <v>1132.156582196528</v>
       </c>
       <c r="U13" t="n">
-        <v>959.542267441394</v>
+        <v>959.5422674413941</v>
       </c>
       <c r="V13" t="n">
-        <v>813.3828877555828</v>
+        <v>813.3828877555831</v>
       </c>
       <c r="W13" t="n">
-        <v>641.8024110287485</v>
+        <v>641.8024110287486</v>
       </c>
       <c r="X13" t="n">
-        <v>525.1258716798907</v>
+        <v>525.1258716798905</v>
       </c>
       <c r="Y13" t="n">
-        <v>417.6666376279342</v>
+        <v>417.6666376279341</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1395.192928145052</v>
+        <v>1408.852209342197</v>
       </c>
       <c r="C14" t="n">
-        <v>1127.835094233626</v>
+        <v>1408.852209342197</v>
       </c>
       <c r="D14" t="n">
-        <v>869.5870542166158</v>
+        <v>1150.604169325187</v>
       </c>
       <c r="E14" t="n">
-        <v>869.5870542166158</v>
+        <v>870.3943741870602</v>
       </c>
       <c r="F14" t="n">
-        <v>570.0117882825525</v>
+        <v>570.8191082529969</v>
       </c>
       <c r="G14" t="n">
-        <v>268.4837264925069</v>
+        <v>269.2910464629514</v>
       </c>
       <c r="H14" t="n">
-        <v>109.2869708514646</v>
+        <v>51.04569681602704</v>
       </c>
       <c r="I14" t="n">
-        <v>51.04569681602705</v>
+        <v>51.04569681602704</v>
       </c>
       <c r="J14" t="n">
         <v>235.3401049419593</v>
       </c>
       <c r="K14" t="n">
-        <v>587.7763408398688</v>
+        <v>587.7763408398687</v>
       </c>
       <c r="L14" t="n">
-        <v>1047.957577777942</v>
+        <v>935.6617139248149</v>
       </c>
       <c r="M14" t="n">
-        <v>1522.8984682478</v>
+        <v>1328.900880177903</v>
       </c>
       <c r="N14" t="n">
-        <v>1901.229826935516</v>
+        <v>1819.528102718745</v>
       </c>
       <c r="O14" t="n">
-        <v>2206.234411408349</v>
+        <v>2124.532687191579</v>
       </c>
       <c r="P14" t="n">
-        <v>2434.391307864403</v>
+        <v>2352.689583647632</v>
       </c>
       <c r="Q14" t="n">
-        <v>2528.82356155094</v>
+        <v>2528.823561550939</v>
       </c>
       <c r="R14" t="n">
         <v>2552.284840801352</v>
       </c>
       <c r="S14" t="n">
-        <v>2552.284840801352</v>
+        <v>2479.631790187473</v>
       </c>
       <c r="T14" t="n">
-        <v>2552.284840801352</v>
+        <v>2369.848768674251</v>
       </c>
       <c r="U14" t="n">
-        <v>2411.975429271113</v>
+        <v>2229.539357144011</v>
       </c>
       <c r="V14" t="n">
-        <v>2189.57207992282</v>
+        <v>2007.136007795718</v>
       </c>
       <c r="W14" t="n">
-        <v>1941.613074536187</v>
+        <v>1759.177002409086</v>
       </c>
       <c r="X14" t="n">
-        <v>1674.158858813447</v>
+        <v>1759.177002409086</v>
       </c>
       <c r="Y14" t="n">
-        <v>1395.192928145052</v>
+        <v>1688.31982410445</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>912.9519401010905</v>
+        <v>912.95194010109</v>
       </c>
       <c r="C15" t="n">
-        <v>751.2482673420452</v>
+        <v>751.2482673420448</v>
       </c>
       <c r="D15" t="n">
-        <v>612.4096303322573</v>
+        <v>612.4096303322568</v>
       </c>
       <c r="E15" t="n">
-        <v>465.3816203891285</v>
+        <v>465.381620389128</v>
       </c>
       <c r="F15" t="n">
-        <v>330.6878223390029</v>
+        <v>330.6878223390024</v>
       </c>
       <c r="G15" t="n">
-        <v>219.365839579268</v>
+        <v>201.959322362287</v>
       </c>
       <c r="H15" t="n">
-        <v>119.4279821259661</v>
+        <v>102.021464908985</v>
       </c>
       <c r="I15" t="n">
-        <v>51.04569681602705</v>
+        <v>51.04569681602704</v>
       </c>
       <c r="J15" t="n">
-        <v>108.6059435922575</v>
+        <v>108.605943592257</v>
       </c>
       <c r="K15" t="n">
-        <v>338.0964961524462</v>
+        <v>338.0964961524457</v>
       </c>
       <c r="L15" t="n">
-        <v>703.9183413225618</v>
+        <v>703.9183413225613</v>
       </c>
       <c r="M15" t="n">
         <v>1188.951694832788</v>
@@ -5385,16 +5385,16 @@
         <v>2339.701084909038</v>
       </c>
       <c r="T15" t="n">
-        <v>2151.015981075024</v>
+        <v>2151.015981075023</v>
       </c>
       <c r="U15" t="n">
-        <v>1932.521188673334</v>
+        <v>1932.521188673333</v>
       </c>
       <c r="V15" t="n">
-        <v>1704.125566121668</v>
+        <v>1704.125566121667</v>
       </c>
       <c r="W15" t="n">
-        <v>1462.809697354978</v>
+        <v>1462.809697354977</v>
       </c>
       <c r="X15" t="n">
         <v>1264.892709232772</v>
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>348.6871936993212</v>
+        <v>348.6871936993209</v>
       </c>
       <c r="C16" t="n">
-        <v>293.6471489167678</v>
+        <v>293.6471489167676</v>
       </c>
       <c r="D16" t="n">
         <v>255.1511805002967</v>
@@ -5428,19 +5428,19 @@
         <v>125.4695369225419</v>
       </c>
       <c r="H16" t="n">
-        <v>80.67281645758214</v>
+        <v>80.67281645758212</v>
       </c>
       <c r="I16" t="n">
-        <v>51.04569681602705</v>
+        <v>51.04569681602704</v>
       </c>
       <c r="J16" t="n">
-        <v>104.4794611311846</v>
+        <v>104.4794611311844</v>
       </c>
       <c r="K16" t="n">
-        <v>250.3795127289546</v>
+        <v>250.3795127289544</v>
       </c>
       <c r="L16" t="n">
-        <v>463.2824559823408</v>
+        <v>463.2824559823405</v>
       </c>
       <c r="M16" t="n">
         <v>693.5718259630689</v>
@@ -5479,7 +5479,7 @@
         <v>525.1258716798909</v>
       </c>
       <c r="Y16" t="n">
-        <v>417.6666376279346</v>
+        <v>417.6666376279343</v>
       </c>
     </row>
     <row r="17">
@@ -5489,70 +5489,70 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1360.575681806825</v>
+        <v>1360.575681806824</v>
       </c>
       <c r="C17" t="n">
         <v>1146.628652964289</v>
       </c>
       <c r="D17" t="n">
-        <v>941.7914180161698</v>
+        <v>941.7914180161696</v>
       </c>
       <c r="E17" t="n">
-        <v>714.992427946934</v>
+        <v>714.9924279469337</v>
       </c>
       <c r="F17" t="n">
-        <v>468.8279670817616</v>
+        <v>468.8279670817615</v>
       </c>
       <c r="G17" t="n">
-        <v>220.7107103606069</v>
+        <v>220.710710360607</v>
       </c>
       <c r="H17" t="n">
-        <v>55.87616578257373</v>
+        <v>55.87616578257369</v>
       </c>
       <c r="I17" t="n">
-        <v>51.04569681602705</v>
+        <v>51.04569681602704</v>
       </c>
       <c r="J17" t="n">
-        <v>159.9980390146698</v>
+        <v>123.0442410888327</v>
       </c>
       <c r="K17" t="n">
-        <v>400.1384110594526</v>
+        <v>363.1846131336155</v>
       </c>
       <c r="L17" t="n">
-        <v>748.0237841443989</v>
+        <v>711.0699862185618</v>
       </c>
       <c r="M17" t="n">
-        <v>1141.262950397487</v>
+        <v>1217.072159695919</v>
       </c>
       <c r="N17" t="n">
-        <v>1519.594309085202</v>
+        <v>1595.403518383634</v>
       </c>
       <c r="O17" t="n">
-        <v>1824.598893558036</v>
+        <v>1900.408102856469</v>
       </c>
       <c r="P17" t="n">
-        <v>2217.399583915236</v>
+        <v>2293.208793213668</v>
       </c>
       <c r="Q17" t="n">
-        <v>2476.47563150292</v>
+        <v>2552.284840801352</v>
       </c>
       <c r="R17" t="n">
         <v>2552.284840801352</v>
       </c>
       <c r="S17" t="n">
-        <v>2533.042595256364</v>
+        <v>2533.042595256363</v>
       </c>
       <c r="T17" t="n">
-        <v>2476.670378812033</v>
+        <v>2476.670378812032</v>
       </c>
       <c r="U17" t="n">
-        <v>2389.771772350684</v>
+        <v>2389.771772350683</v>
       </c>
       <c r="V17" t="n">
         <v>2220.779228071282</v>
       </c>
       <c r="W17" t="n">
-        <v>2026.231027753541</v>
+        <v>2026.23102775354</v>
       </c>
       <c r="X17" t="n">
         <v>1812.187617099691</v>
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>930.3584573180711</v>
+        <v>912.95194010109</v>
       </c>
       <c r="C18" t="n">
-        <v>768.6547845590259</v>
+        <v>751.2482673420448</v>
       </c>
       <c r="D18" t="n">
-        <v>629.8161475492379</v>
+        <v>612.4096303322568</v>
       </c>
       <c r="E18" t="n">
-        <v>482.7881376061091</v>
+        <v>465.381620389128</v>
       </c>
       <c r="F18" t="n">
-        <v>348.0943395559834</v>
+        <v>330.6878223390024</v>
       </c>
       <c r="G18" t="n">
         <v>219.365839579268</v>
@@ -5589,19 +5589,19 @@
         <v>119.4279821259661</v>
       </c>
       <c r="I18" t="n">
-        <v>51.04569681602705</v>
+        <v>51.04569681602704</v>
       </c>
       <c r="J18" t="n">
-        <v>108.6059435922575</v>
+        <v>111.2998433491332</v>
       </c>
       <c r="K18" t="n">
-        <v>338.0964961524462</v>
+        <v>340.7903959093218</v>
       </c>
       <c r="L18" t="n">
-        <v>703.9183413225618</v>
+        <v>706.6122410794375</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.951694832788</v>
+        <v>1191.645594589664</v>
       </c>
       <c r="N18" t="n">
         <v>1700.21734095591</v>
@@ -5616,28 +5616,28 @@
         <v>2552.284840801352</v>
       </c>
       <c r="R18" t="n">
-        <v>2509.907089113279</v>
+        <v>2492.500571896298</v>
       </c>
       <c r="S18" t="n">
-        <v>2357.107602126019</v>
+        <v>2339.701084909038</v>
       </c>
       <c r="T18" t="n">
-        <v>2168.422498292005</v>
+        <v>2151.015981075023</v>
       </c>
       <c r="U18" t="n">
-        <v>1949.927705890315</v>
+        <v>1932.521188673333</v>
       </c>
       <c r="V18" t="n">
-        <v>1721.532083338649</v>
+        <v>1704.125566121667</v>
       </c>
       <c r="W18" t="n">
-        <v>1480.216214571959</v>
+        <v>1462.809697354977</v>
       </c>
       <c r="X18" t="n">
-        <v>1282.299226449753</v>
+        <v>1264.892709232772</v>
       </c>
       <c r="Y18" t="n">
-        <v>1089.777900099332</v>
+        <v>1072.371382882351</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.67493652968945</v>
+        <v>52.67493652968941</v>
       </c>
       <c r="C19" t="n">
-        <v>51.04569681602705</v>
+        <v>51.04569681602704</v>
       </c>
       <c r="D19" t="n">
-        <v>65.66372821906393</v>
+        <v>51.04569681602704</v>
       </c>
       <c r="E19" t="n">
-        <v>77.3710283413315</v>
+        <v>51.04569681602704</v>
       </c>
       <c r="F19" t="n">
-        <v>77.3710283413315</v>
+        <v>66.24320077693784</v>
       </c>
       <c r="G19" t="n">
-        <v>76.43800953383881</v>
+        <v>65.31018196944518</v>
       </c>
       <c r="H19" t="n">
-        <v>76.43800953383881</v>
+        <v>73.75284628975811</v>
       </c>
       <c r="I19" t="n">
-        <v>76.43800953383881</v>
+        <v>76.43800953383847</v>
       </c>
       <c r="J19" t="n">
-        <v>76.43800953383881</v>
+        <v>76.43800953383847</v>
       </c>
       <c r="K19" t="n">
-        <v>110.0421972784822</v>
+        <v>110.0421972784819</v>
       </c>
       <c r="L19" t="n">
-        <v>210.6492766787417</v>
+        <v>210.6492766787414</v>
       </c>
       <c r="M19" t="n">
-        <v>328.6427828063435</v>
+        <v>328.6427828063431</v>
       </c>
       <c r="N19" t="n">
-        <v>447.0651245559438</v>
+        <v>447.0651245559435</v>
       </c>
       <c r="O19" t="n">
-        <v>545.5287710516335</v>
+        <v>545.5287710516332</v>
       </c>
       <c r="P19" t="n">
-        <v>608.4972547797713</v>
+        <v>608.497254779771</v>
       </c>
       <c r="Q19" t="n">
-        <v>608.4972547797713</v>
+        <v>608.497254779771</v>
       </c>
       <c r="R19" t="n">
-        <v>626.59475074487</v>
+        <v>626.5947507448697</v>
       </c>
       <c r="S19" t="n">
-        <v>580.8717179732149</v>
+        <v>580.8717179732146</v>
       </c>
       <c r="T19" t="n">
-        <v>515.679494613551</v>
+        <v>515.6794946135508</v>
       </c>
       <c r="U19" t="n">
-        <v>396.4759849273082</v>
+        <v>396.475984927308</v>
       </c>
       <c r="V19" t="n">
-        <v>303.7274103103881</v>
+        <v>303.7274103103879</v>
       </c>
       <c r="W19" t="n">
-        <v>185.5577386524445</v>
+        <v>185.5577386524444</v>
       </c>
       <c r="X19" t="n">
-        <v>122.2920043724776</v>
+        <v>122.2920043724775</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.24357538941197</v>
+        <v>68.2435753894119</v>
       </c>
     </row>
     <row r="20">
@@ -5744,40 +5744,40 @@
         <v>220.710710360607</v>
       </c>
       <c r="H20" t="n">
-        <v>55.87616578257373</v>
+        <v>55.87616578257369</v>
       </c>
       <c r="I20" t="n">
-        <v>51.04569681602705</v>
+        <v>51.04569681602704</v>
       </c>
       <c r="J20" t="n">
-        <v>287.6880349899793</v>
+        <v>235.8072483131019</v>
       </c>
       <c r="K20" t="n">
-        <v>692.4722009359086</v>
+        <v>475.9476203578847</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.357574020855</v>
+        <v>823.8329934428309</v>
       </c>
       <c r="M20" t="n">
-        <v>1433.596740273943</v>
+        <v>1217.072159695919</v>
       </c>
       <c r="N20" t="n">
-        <v>1811.928098961658</v>
+        <v>1760.047312284781</v>
       </c>
       <c r="O20" t="n">
-        <v>2116.932683434492</v>
+        <v>2065.051896757615</v>
       </c>
       <c r="P20" t="n">
-        <v>2345.089579890546</v>
+        <v>2457.852587114815</v>
       </c>
       <c r="Q20" t="n">
-        <v>2476.47563150292</v>
+        <v>2552.284840801352</v>
       </c>
       <c r="R20" t="n">
         <v>2552.284840801352</v>
       </c>
       <c r="S20" t="n">
-        <v>2533.042595256364</v>
+        <v>2533.042595256363</v>
       </c>
       <c r="T20" t="n">
         <v>2476.670378812032</v>
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>930.3584573180711</v>
+        <v>912.95194010109</v>
       </c>
       <c r="C21" t="n">
-        <v>768.6547845590259</v>
+        <v>751.2482673420448</v>
       </c>
       <c r="D21" t="n">
-        <v>629.8161475492379</v>
+        <v>612.4096303322568</v>
       </c>
       <c r="E21" t="n">
-        <v>482.7881376061091</v>
+        <v>465.381620389128</v>
       </c>
       <c r="F21" t="n">
-        <v>348.0943395559834</v>
+        <v>330.6878223390024</v>
       </c>
       <c r="G21" t="n">
-        <v>219.365839579268</v>
+        <v>201.959322362287</v>
       </c>
       <c r="H21" t="n">
-        <v>119.4279821259661</v>
+        <v>102.021464908985</v>
       </c>
       <c r="I21" t="n">
-        <v>51.04569681602705</v>
+        <v>51.04569681602704</v>
       </c>
       <c r="J21" t="n">
         <v>111.2998433491332</v>
       </c>
       <c r="K21" t="n">
-        <v>340.7903959093219</v>
+        <v>340.7903959093218</v>
       </c>
       <c r="L21" t="n">
-        <v>706.6122410794376</v>
+        <v>706.6122410794375</v>
       </c>
       <c r="M21" t="n">
         <v>1188.951694832788</v>
@@ -5853,28 +5853,28 @@
         <v>2552.284840801352</v>
       </c>
       <c r="R21" t="n">
-        <v>2509.907089113279</v>
+        <v>2492.500571896298</v>
       </c>
       <c r="S21" t="n">
-        <v>2357.107602126019</v>
+        <v>2339.701084909038</v>
       </c>
       <c r="T21" t="n">
-        <v>2168.422498292005</v>
+        <v>2151.015981075023</v>
       </c>
       <c r="U21" t="n">
-        <v>1949.927705890315</v>
+        <v>1932.521188673333</v>
       </c>
       <c r="V21" t="n">
-        <v>1721.532083338649</v>
+        <v>1704.125566121667</v>
       </c>
       <c r="W21" t="n">
-        <v>1480.216214571959</v>
+        <v>1462.809697354977</v>
       </c>
       <c r="X21" t="n">
-        <v>1282.299226449753</v>
+        <v>1264.892709232772</v>
       </c>
       <c r="Y21" t="n">
-        <v>1089.777900099332</v>
+        <v>1072.371382882351</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.60795533718213</v>
+        <v>52.67493652968941</v>
       </c>
       <c r="C22" t="n">
-        <v>51.97871562351973</v>
+        <v>51.04569681602704</v>
       </c>
       <c r="D22" t="n">
-        <v>51.97871562351973</v>
+        <v>51.04569681602704</v>
       </c>
       <c r="E22" t="n">
-        <v>51.97871562351973</v>
+        <v>51.04569681602704</v>
       </c>
       <c r="F22" t="n">
-        <v>51.97871562351973</v>
+        <v>51.9787156235197</v>
       </c>
       <c r="G22" t="n">
-        <v>51.04569681602705</v>
+        <v>51.04569681602704</v>
       </c>
       <c r="H22" t="n">
-        <v>51.04569681602705</v>
+        <v>51.04569681602704</v>
       </c>
       <c r="I22" t="n">
-        <v>51.04569681602705</v>
+        <v>51.04569681602704</v>
       </c>
       <c r="J22" t="n">
-        <v>51.04569681602705</v>
+        <v>51.04569681602704</v>
       </c>
       <c r="K22" t="n">
-        <v>84.64988456067046</v>
+        <v>84.64988456067044</v>
       </c>
       <c r="L22" t="n">
         <v>185.25696396093</v>
@@ -5923,37 +5923,37 @@
         <v>421.6728118381321</v>
       </c>
       <c r="O22" t="n">
-        <v>564.5592858242248</v>
+        <v>520.1364583338218</v>
       </c>
       <c r="P22" t="n">
-        <v>627.5277695523627</v>
+        <v>583.1049420619596</v>
       </c>
       <c r="Q22" t="n">
-        <v>627.5277695523627</v>
+        <v>626.5947507448697</v>
       </c>
       <c r="R22" t="n">
-        <v>627.5277695523627</v>
+        <v>626.5947507448697</v>
       </c>
       <c r="S22" t="n">
-        <v>581.8047367807076</v>
+        <v>580.8717179732146</v>
       </c>
       <c r="T22" t="n">
-        <v>516.6125134210437</v>
+        <v>515.6794946135508</v>
       </c>
       <c r="U22" t="n">
-        <v>397.4090037348009</v>
+        <v>396.475984927308</v>
       </c>
       <c r="V22" t="n">
-        <v>304.6604291178808</v>
+        <v>303.7274103103879</v>
       </c>
       <c r="W22" t="n">
-        <v>186.4907574599372</v>
+        <v>185.5577386524444</v>
       </c>
       <c r="X22" t="n">
-        <v>123.2250231799703</v>
+        <v>122.2920043724775</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.17659419690466</v>
+        <v>68.2435753894119</v>
       </c>
     </row>
     <row r="23">
@@ -5969,52 +5969,52 @@
         <v>1146.628652964289</v>
       </c>
       <c r="D23" t="n">
-        <v>941.79141801617</v>
+        <v>941.7914180161699</v>
       </c>
       <c r="E23" t="n">
-        <v>714.9924279469342</v>
+        <v>714.9924279469341</v>
       </c>
       <c r="F23" t="n">
-        <v>468.8279670817619</v>
+        <v>468.8279670817617</v>
       </c>
       <c r="G23" t="n">
-        <v>220.7107103606072</v>
+        <v>220.710710360607</v>
       </c>
       <c r="H23" t="n">
-        <v>55.87616578257373</v>
+        <v>55.87616578257369</v>
       </c>
       <c r="I23" t="n">
-        <v>51.04569681602705</v>
+        <v>51.04569681602704</v>
       </c>
       <c r="J23" t="n">
-        <v>123.0442410888327</v>
+        <v>235.8072483131017</v>
       </c>
       <c r="K23" t="n">
-        <v>363.1846131336155</v>
+        <v>475.9476203578845</v>
       </c>
       <c r="L23" t="n">
-        <v>748.0237841443989</v>
+        <v>988.4767873439773</v>
       </c>
       <c r="M23" t="n">
-        <v>1141.262950397487</v>
+        <v>1381.715953597065</v>
       </c>
       <c r="N23" t="n">
-        <v>1519.594309085202</v>
+        <v>1760.047312284781</v>
       </c>
       <c r="O23" t="n">
-        <v>1989.242687459183</v>
+        <v>2229.695690658762</v>
       </c>
       <c r="P23" t="n">
-        <v>2217.399583915236</v>
+        <v>2457.852587114815</v>
       </c>
       <c r="Q23" t="n">
-        <v>2476.47563150292</v>
+        <v>2552.284840801352</v>
       </c>
       <c r="R23" t="n">
         <v>2552.284840801352</v>
       </c>
       <c r="S23" t="n">
-        <v>2533.042595256364</v>
+        <v>2533.042595256363</v>
       </c>
       <c r="T23" t="n">
         <v>2476.670378812032</v>
@@ -6042,40 +6042,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>930.3584573180711</v>
+        <v>912.95194010109</v>
       </c>
       <c r="C24" t="n">
-        <v>768.6547845590259</v>
+        <v>751.2482673420448</v>
       </c>
       <c r="D24" t="n">
-        <v>629.8161475492379</v>
+        <v>612.4096303322568</v>
       </c>
       <c r="E24" t="n">
-        <v>482.7881376061091</v>
+        <v>465.381620389128</v>
       </c>
       <c r="F24" t="n">
-        <v>348.0943395559834</v>
+        <v>330.6878223390024</v>
       </c>
       <c r="G24" t="n">
-        <v>219.365839579268</v>
+        <v>201.959322362287</v>
       </c>
       <c r="H24" t="n">
-        <v>119.4279821259661</v>
+        <v>102.021464908985</v>
       </c>
       <c r="I24" t="n">
-        <v>51.04569681602705</v>
+        <v>51.04569681602704</v>
       </c>
       <c r="J24" t="n">
-        <v>108.6059435922575</v>
+        <v>111.2998433491332</v>
       </c>
       <c r="K24" t="n">
-        <v>338.0964961524462</v>
+        <v>340.7903959093218</v>
       </c>
       <c r="L24" t="n">
-        <v>703.9183413225618</v>
+        <v>706.6122410794375</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.951694832788</v>
+        <v>1191.645594589664</v>
       </c>
       <c r="N24" t="n">
         <v>1700.21734095591</v>
@@ -6096,22 +6096,22 @@
         <v>2339.701084909038</v>
       </c>
       <c r="T24" t="n">
-        <v>2168.422498292005</v>
+        <v>2151.015981075023</v>
       </c>
       <c r="U24" t="n">
-        <v>1949.927705890315</v>
+        <v>1932.521188673333</v>
       </c>
       <c r="V24" t="n">
-        <v>1721.532083338649</v>
+        <v>1704.125566121667</v>
       </c>
       <c r="W24" t="n">
-        <v>1480.216214571959</v>
+        <v>1462.809697354977</v>
       </c>
       <c r="X24" t="n">
-        <v>1282.299226449753</v>
+        <v>1264.892709232772</v>
       </c>
       <c r="Y24" t="n">
-        <v>1089.777900099332</v>
+        <v>1072.371382882351</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.60795533718213</v>
+        <v>52.67493652968941</v>
       </c>
       <c r="C25" t="n">
-        <v>51.97871562351973</v>
+        <v>51.04569681602704</v>
       </c>
       <c r="D25" t="n">
-        <v>51.97871562351973</v>
+        <v>51.04569681602704</v>
       </c>
       <c r="E25" t="n">
-        <v>51.97871562351973</v>
+        <v>51.9787156235197</v>
       </c>
       <c r="F25" t="n">
-        <v>51.97871562351973</v>
+        <v>51.9787156235197</v>
       </c>
       <c r="G25" t="n">
-        <v>51.04569681602705</v>
+        <v>51.04569681602704</v>
       </c>
       <c r="H25" t="n">
-        <v>51.04569681602705</v>
+        <v>59.48836113633997</v>
       </c>
       <c r="I25" t="n">
-        <v>51.04569681602705</v>
+        <v>59.48836113633997</v>
       </c>
       <c r="J25" t="n">
-        <v>51.04569681602705</v>
+        <v>59.48836113633997</v>
       </c>
       <c r="K25" t="n">
-        <v>84.64988456067046</v>
+        <v>93.09254888098337</v>
       </c>
       <c r="L25" t="n">
-        <v>185.25696396093</v>
+        <v>193.6996282812429</v>
       </c>
       <c r="M25" t="n">
-        <v>303.2504700885317</v>
+        <v>311.6931344088446</v>
       </c>
       <c r="N25" t="n">
-        <v>466.0956393285352</v>
+        <v>430.115476158445</v>
       </c>
       <c r="O25" t="n">
-        <v>564.5592858242248</v>
+        <v>528.5791226541347</v>
       </c>
       <c r="P25" t="n">
-        <v>627.5277695523627</v>
+        <v>608.497254779771</v>
       </c>
       <c r="Q25" t="n">
-        <v>627.5277695523627</v>
+        <v>608.497254779771</v>
       </c>
       <c r="R25" t="n">
-        <v>627.5277695523627</v>
+        <v>626.5947507448697</v>
       </c>
       <c r="S25" t="n">
-        <v>581.8047367807076</v>
+        <v>580.8717179732146</v>
       </c>
       <c r="T25" t="n">
-        <v>516.6125134210437</v>
+        <v>515.6794946135508</v>
       </c>
       <c r="U25" t="n">
-        <v>397.4090037348009</v>
+        <v>396.475984927308</v>
       </c>
       <c r="V25" t="n">
-        <v>304.6604291178808</v>
+        <v>303.7274103103879</v>
       </c>
       <c r="W25" t="n">
-        <v>186.4907574599372</v>
+        <v>185.5577386524444</v>
       </c>
       <c r="X25" t="n">
-        <v>123.2250231799703</v>
+        <v>122.2920043724775</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.17659419690466</v>
+        <v>68.2435753894119</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6200,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1652.229537859158</v>
+        <v>1652.229537859157</v>
       </c>
       <c r="C26" t="n">
-        <v>1398.363405813929</v>
+        <v>1398.363405813928</v>
       </c>
       <c r="D26" t="n">
-        <v>1153.607067663117</v>
+        <v>1153.607067663115</v>
       </c>
       <c r="E26" t="n">
-        <v>886.8889743911866</v>
+        <v>886.8889743911859</v>
       </c>
       <c r="F26" t="n">
-        <v>600.8054103233201</v>
+        <v>600.8054103233196</v>
       </c>
       <c r="G26" t="n">
-        <v>312.7690503994718</v>
+        <v>312.7690503994713</v>
       </c>
       <c r="H26" t="n">
-        <v>108.0154026187449</v>
+        <v>108.0154026187451</v>
       </c>
       <c r="I26" t="n">
-        <v>63.26583044950467</v>
+        <v>63.26583044950485</v>
       </c>
       <c r="J26" t="n">
-        <v>260.7834555744973</v>
+        <v>260.7834555744971</v>
       </c>
       <c r="K26" t="n">
         <v>626.4429084714666</v>
@@ -6236,7 +6236,7 @@
         <v>1618.605609513874</v>
       </c>
       <c r="N26" t="n">
-        <v>2122.456049053776</v>
+        <v>2122.456049053777</v>
       </c>
       <c r="O26" t="n">
         <v>2552.979714378797</v>
@@ -6245,31 +6245,31 @@
         <v>2906.655691687037</v>
       </c>
       <c r="Q26" t="n">
-        <v>3126.607026225761</v>
+        <v>3126.60702622576</v>
       </c>
       <c r="R26" t="n">
         <v>3163.291522475233</v>
       </c>
       <c r="S26" t="n">
-        <v>3104.130173727552</v>
+        <v>3104.130173727551</v>
       </c>
       <c r="T26" t="n">
-        <v>3007.838854080527</v>
+        <v>3007.838854080525</v>
       </c>
       <c r="U26" t="n">
-        <v>2881.021144416485</v>
+        <v>2881.021144416484</v>
       </c>
       <c r="V26" t="n">
-        <v>2672.10949693439</v>
+        <v>2672.109496934389</v>
       </c>
       <c r="W26" t="n">
-        <v>2437.642193413955</v>
+        <v>2437.642193413954</v>
       </c>
       <c r="X26" t="n">
-        <v>2183.679679557412</v>
+        <v>2183.679679557411</v>
       </c>
       <c r="Y26" t="n">
-        <v>1918.205450755213</v>
+        <v>1918.205450755212</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>942.5785909515488</v>
+        <v>927.8659734914443</v>
       </c>
       <c r="C27" t="n">
-        <v>780.8749181925035</v>
+        <v>766.162300732399</v>
       </c>
       <c r="D27" t="n">
-        <v>642.0362811827156</v>
+        <v>627.3236637226111</v>
       </c>
       <c r="E27" t="n">
-        <v>495.0082712395867</v>
+        <v>480.2956537794823</v>
       </c>
       <c r="F27" t="n">
-        <v>360.3144731894611</v>
+        <v>345.6018557293567</v>
       </c>
       <c r="G27" t="n">
-        <v>231.5859732127456</v>
+        <v>216.8733557526412</v>
       </c>
       <c r="H27" t="n">
-        <v>131.6481157594437</v>
+        <v>116.9354982993393</v>
       </c>
       <c r="I27" t="n">
-        <v>63.26583044950467</v>
+        <v>63.26583044950466</v>
       </c>
       <c r="J27" t="n">
         <v>123.5199769826108</v>
@@ -6333,22 +6333,22 @@
         <v>2354.615118299392</v>
       </c>
       <c r="T27" t="n">
-        <v>2180.642631925482</v>
+        <v>2165.930014465378</v>
       </c>
       <c r="U27" t="n">
-        <v>1962.147839523792</v>
+        <v>1947.435222063688</v>
       </c>
       <c r="V27" t="n">
-        <v>1733.752216972126</v>
+        <v>1719.039599512022</v>
       </c>
       <c r="W27" t="n">
-        <v>1492.436348205436</v>
+        <v>1477.723730745332</v>
       </c>
       <c r="X27" t="n">
-        <v>1294.519360083231</v>
+        <v>1279.806742623126</v>
       </c>
       <c r="Y27" t="n">
-        <v>1101.99803373281</v>
+        <v>1087.285416272705</v>
       </c>
     </row>
     <row r="28">
@@ -6379,25 +6379,25 @@
         <v>79.40124822486237</v>
       </c>
       <c r="I28" t="n">
-        <v>63.26583044950467</v>
+        <v>63.26583044950466</v>
       </c>
       <c r="J28" t="n">
-        <v>129.9228117637221</v>
+        <v>63.26583044950466</v>
       </c>
       <c r="K28" t="n">
-        <v>180.660827959768</v>
+        <v>222.3890990463347</v>
       </c>
       <c r="L28" t="n">
-        <v>406.7869882122142</v>
+        <v>448.5152592987809</v>
       </c>
       <c r="M28" t="n">
-        <v>650.2995751920026</v>
+        <v>692.0278462785693</v>
       </c>
       <c r="N28" t="n">
-        <v>894.2409977937897</v>
+        <v>894.2409977937898</v>
       </c>
       <c r="O28" t="n">
-        <v>992.7046442894793</v>
+        <v>1118.223725141666</v>
       </c>
       <c r="P28" t="n">
         <v>1181.192208869804</v>
@@ -6427,7 +6427,7 @@
         <v>415.9206885175922</v>
       </c>
       <c r="Y28" t="n">
-        <v>321.953156331833</v>
+        <v>321.9531563318331</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>108.0154026187449</v>
       </c>
       <c r="I29" t="n">
-        <v>63.26583044950467</v>
+        <v>63.26583044950466</v>
       </c>
       <c r="J29" t="n">
-        <v>260.7834555744969</v>
+        <v>260.7834555744971</v>
       </c>
       <c r="K29" t="n">
-        <v>626.4429084714664</v>
+        <v>626.4429084714666</v>
       </c>
       <c r="L29" t="n">
         <v>1099.8473624086</v>
@@ -6482,16 +6482,16 @@
         <v>2906.655691687037</v>
       </c>
       <c r="Q29" t="n">
-        <v>3126.607026225761</v>
+        <v>3126.60702622576</v>
       </c>
       <c r="R29" t="n">
         <v>3163.291522475233</v>
       </c>
       <c r="S29" t="n">
-        <v>3104.130173727551</v>
+        <v>3104.13017372755</v>
       </c>
       <c r="T29" t="n">
-        <v>3007.838854080526</v>
+        <v>3007.838854080525</v>
       </c>
       <c r="U29" t="n">
         <v>2881.021144416483</v>
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>942.5785909515488</v>
+        <v>927.8659734914443</v>
       </c>
       <c r="C30" t="n">
-        <v>780.8749181925035</v>
+        <v>766.162300732399</v>
       </c>
       <c r="D30" t="n">
-        <v>642.0362811827156</v>
+        <v>627.3236637226111</v>
       </c>
       <c r="E30" t="n">
-        <v>495.0082712395867</v>
+        <v>480.2956537794823</v>
       </c>
       <c r="F30" t="n">
-        <v>360.3144731894611</v>
+        <v>345.6018557293567</v>
       </c>
       <c r="G30" t="n">
-        <v>231.5859732127456</v>
+        <v>216.8733557526412</v>
       </c>
       <c r="H30" t="n">
         <v>131.6481157594437</v>
       </c>
       <c r="I30" t="n">
-        <v>63.26583044950467</v>
+        <v>63.26583044950466</v>
       </c>
       <c r="J30" t="n">
         <v>123.5199769826108</v>
@@ -6564,28 +6564,28 @@
         <v>2567.198874191706</v>
       </c>
       <c r="R30" t="n">
-        <v>2522.127222746756</v>
+        <v>2507.414605286652</v>
       </c>
       <c r="S30" t="n">
-        <v>2369.327735759497</v>
+        <v>2354.615118299392</v>
       </c>
       <c r="T30" t="n">
-        <v>2180.642631925482</v>
+        <v>2165.930014465378</v>
       </c>
       <c r="U30" t="n">
-        <v>1962.147839523792</v>
+        <v>1947.435222063688</v>
       </c>
       <c r="V30" t="n">
-        <v>1733.752216972126</v>
+        <v>1719.039599512022</v>
       </c>
       <c r="W30" t="n">
-        <v>1492.436348205436</v>
+        <v>1477.723730745332</v>
       </c>
       <c r="X30" t="n">
-        <v>1294.519360083231</v>
+        <v>1279.806742623126</v>
       </c>
       <c r="Y30" t="n">
-        <v>1101.99803373281</v>
+        <v>1087.285416272705</v>
       </c>
     </row>
     <row r="31">
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>266.4654142694171</v>
+        <v>266.465414269417</v>
       </c>
       <c r="C31" t="n">
         <v>224.9170713530611</v>
       </c>
       <c r="D31" t="n">
-        <v>199.9128048027876</v>
+        <v>199.9128048027875</v>
       </c>
       <c r="E31" t="n">
-        <v>175.9714171860702</v>
+        <v>175.9714171860701</v>
       </c>
       <c r="F31" t="n">
-        <v>151.5583888338111</v>
+        <v>151.558388833811</v>
       </c>
       <c r="G31" t="n">
         <v>110.7062668236248</v>
       </c>
       <c r="H31" t="n">
-        <v>79.40124822486239</v>
+        <v>79.40124822486237</v>
       </c>
       <c r="I31" t="n">
-        <v>63.26583044950467</v>
+        <v>63.26583044950466</v>
       </c>
       <c r="J31" t="n">
         <v>129.922811763722</v>
       </c>
       <c r="K31" t="n">
-        <v>289.0460803605521</v>
+        <v>218.4312762132875</v>
       </c>
       <c r="L31" t="n">
-        <v>515.1722406129983</v>
+        <v>444.5574364657337</v>
       </c>
       <c r="M31" t="n">
-        <v>758.6848275927866</v>
+        <v>562.5509425933354</v>
       </c>
       <c r="N31" t="n">
-        <v>1002.626250194574</v>
+        <v>680.9732843429358</v>
       </c>
       <c r="O31" t="n">
-        <v>1101.089896690263</v>
+        <v>904.9560116908121</v>
       </c>
       <c r="P31" t="n">
-        <v>1181.192208869804</v>
+        <v>1093.443576271137</v>
       </c>
       <c r="Q31" t="n">
         <v>1181.192208869804</v>
@@ -6649,22 +6649,22 @@
         <v>1074.095918131797</v>
       </c>
       <c r="T31" t="n">
-        <v>968.98459156944</v>
+        <v>968.9845915694398</v>
       </c>
       <c r="U31" t="n">
-        <v>809.8619786805036</v>
+        <v>809.8619786805034</v>
       </c>
       <c r="V31" t="n">
-        <v>677.1943008608899</v>
+        <v>677.1943008608898</v>
       </c>
       <c r="W31" t="n">
-        <v>519.1055260002528</v>
+        <v>519.1055260002527</v>
       </c>
       <c r="X31" t="n">
-        <v>415.9206885175923</v>
+        <v>415.9206885175922</v>
       </c>
       <c r="Y31" t="n">
-        <v>321.9531563318332</v>
+        <v>321.9531563318331</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1577.19953096665</v>
+        <v>1577.199530966649</v>
       </c>
       <c r="C32" t="n">
         <v>1333.602869138552</v>
@@ -6683,22 +6683,22 @@
         <v>1099.11600120487</v>
       </c>
       <c r="E32" t="n">
-        <v>842.6673781500717</v>
+        <v>842.6673781500714</v>
       </c>
       <c r="F32" t="n">
-        <v>566.8532842993368</v>
+        <v>566.8532842993365</v>
       </c>
       <c r="G32" t="n">
-        <v>289.0863945926194</v>
+        <v>289.0863945926192</v>
       </c>
       <c r="H32" t="n">
-        <v>94.60221702902287</v>
+        <v>94.60221702902275</v>
       </c>
       <c r="I32" t="n">
-        <v>60.12211507691358</v>
+        <v>60.12211507691355</v>
       </c>
       <c r="J32" t="n">
-        <v>267.7048479617159</v>
+        <v>267.704847961716</v>
       </c>
       <c r="K32" t="n">
         <v>643.4294086184955</v>
@@ -6707,25 +6707,25 @@
         <v>1126.898970315438</v>
       </c>
       <c r="M32" t="n">
-        <v>1655.722325180523</v>
+        <v>1520.138136568526</v>
       </c>
       <c r="N32" t="n">
-        <v>2169.637872480235</v>
+        <v>2034.053683868239</v>
       </c>
       <c r="O32" t="n">
-        <v>2501.18281108181</v>
+        <v>2365.598622469811</v>
       </c>
       <c r="P32" t="n">
-        <v>2729.339707537863</v>
+        <v>2729.339707537861</v>
       </c>
       <c r="Q32" t="n">
-        <v>2959.356149836397</v>
+        <v>2959.356149836395</v>
       </c>
       <c r="R32" t="n">
-        <v>3006.105753845679</v>
+        <v>3006.105753845678</v>
       </c>
       <c r="S32" t="n">
-        <v>2957.213875315128</v>
+        <v>2957.213875315127</v>
       </c>
       <c r="T32" t="n">
         <v>2871.192025885233</v>
@@ -6734,16 +6734,16 @@
         <v>2754.643786438322</v>
       </c>
       <c r="V32" t="n">
-        <v>2556.001609173358</v>
+        <v>2556.001609173357</v>
       </c>
       <c r="W32" t="n">
-        <v>2331.803775870054</v>
+        <v>2331.803775870053</v>
       </c>
       <c r="X32" t="n">
-        <v>2088.110732230642</v>
+        <v>2088.110732230641</v>
       </c>
       <c r="Y32" t="n">
-        <v>1832.905973645575</v>
+        <v>1832.905973645574</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>939.4348755789575</v>
+        <v>924.7222581188532</v>
       </c>
       <c r="C33" t="n">
-        <v>777.7312028199123</v>
+        <v>763.018585359808</v>
       </c>
       <c r="D33" t="n">
-        <v>638.8925658101243</v>
+        <v>624.17994835002</v>
       </c>
       <c r="E33" t="n">
-        <v>491.8645558669956</v>
+        <v>477.1519384068912</v>
       </c>
       <c r="F33" t="n">
         <v>357.1707578168699</v>
@@ -6774,7 +6774,7 @@
         <v>128.5044003868526</v>
       </c>
       <c r="I33" t="n">
-        <v>60.12211507691358</v>
+        <v>60.12211507691355</v>
       </c>
       <c r="J33" t="n">
         <v>120.3762616100197</v>
@@ -6801,28 +6801,28 @@
         <v>2564.055158819115</v>
       </c>
       <c r="R33" t="n">
-        <v>2518.983507374165</v>
+        <v>2504.270889914061</v>
       </c>
       <c r="S33" t="n">
-        <v>2366.184020386906</v>
+        <v>2351.471402926801</v>
       </c>
       <c r="T33" t="n">
-        <v>2177.498916552891</v>
+        <v>2162.786299092787</v>
       </c>
       <c r="U33" t="n">
-        <v>1959.004124151201</v>
+        <v>1944.291506691097</v>
       </c>
       <c r="V33" t="n">
-        <v>1730.608501599535</v>
+        <v>1715.895884139431</v>
       </c>
       <c r="W33" t="n">
-        <v>1489.292632832845</v>
+        <v>1474.58001537274</v>
       </c>
       <c r="X33" t="n">
-        <v>1291.37564471064</v>
+        <v>1276.663027250535</v>
       </c>
       <c r="Y33" t="n">
-        <v>1098.854318360218</v>
+        <v>1084.141700900114</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>191.4354073769093</v>
+        <v>191.4354073769087</v>
       </c>
       <c r="C34" t="n">
-        <v>160.1565346776843</v>
+        <v>160.1565346776838</v>
       </c>
       <c r="D34" t="n">
-        <v>145.4217383445418</v>
+        <v>145.4217383445413</v>
       </c>
       <c r="E34" t="n">
-        <v>131.7498209449553</v>
+        <v>131.7498209449549</v>
       </c>
       <c r="F34" t="n">
-        <v>117.6062628098271</v>
+        <v>117.6062628098268</v>
       </c>
       <c r="G34" t="n">
-        <v>87.02361101677182</v>
+        <v>87.02361101677162</v>
       </c>
       <c r="H34" t="n">
-        <v>65.98806263514035</v>
+        <v>65.98806263514024</v>
       </c>
       <c r="I34" t="n">
-        <v>60.12211507691358</v>
+        <v>60.12211507691355</v>
       </c>
       <c r="J34" t="n">
-        <v>136.844204150941</v>
+        <v>112.6956071947131</v>
       </c>
       <c r="K34" t="n">
-        <v>170.4483918955844</v>
+        <v>146.2997949393565</v>
       </c>
       <c r="L34" t="n">
-        <v>271.0554712958439</v>
+        <v>382.4910629516128</v>
       </c>
       <c r="M34" t="n">
-        <v>389.0489774234456</v>
+        <v>500.4845690792146</v>
       </c>
       <c r="N34" t="n">
-        <v>507.471319173046</v>
+        <v>618.9069108288149</v>
       </c>
       <c r="O34" t="n">
-        <v>717.3705573245061</v>
+        <v>717.3705573245046</v>
       </c>
       <c r="P34" t="n">
-        <v>915.9232296646405</v>
+        <v>915.9232296646392</v>
       </c>
       <c r="Q34" t="n">
-        <v>1013.736970023118</v>
+        <v>1013.736970023117</v>
       </c>
       <c r="R34" t="n">
-        <v>1002.552285476591</v>
+        <v>1002.55228547659</v>
       </c>
       <c r="S34" t="n">
-        <v>927.179619719373</v>
+        <v>927.1796197193719</v>
       </c>
       <c r="T34" t="n">
-        <v>832.3377633741466</v>
+        <v>832.3377633741455</v>
       </c>
       <c r="U34" t="n">
-        <v>683.4846207023411</v>
+        <v>683.4846207023402</v>
       </c>
       <c r="V34" t="n">
-        <v>561.0864130998584</v>
+        <v>561.0864130998575</v>
       </c>
       <c r="W34" t="n">
-        <v>413.2671084563522</v>
+        <v>413.2671084563514</v>
       </c>
       <c r="X34" t="n">
-        <v>320.3517411908227</v>
+        <v>320.3517411908219</v>
       </c>
       <c r="Y34" t="n">
-        <v>236.6536792221945</v>
+        <v>236.6536792221937</v>
       </c>
     </row>
     <row r="35">
@@ -6914,58 +6914,58 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C35" t="n">
-        <v>1147.761190413099</v>
+        <v>1147.761190413098</v>
       </c>
       <c r="D35" t="n">
-        <v>942.7443621478543</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E35" t="n">
-        <v>715.7657787614934</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F35" t="n">
-        <v>469.4217245791959</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G35" t="n">
-        <v>221.1248745409162</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H35" t="n">
-        <v>56.11073664575748</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I35" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J35" t="n">
         <v>287.5669931259238</v>
       </c>
       <c r="K35" t="n">
-        <v>692.175139661739</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L35" t="n">
-        <v>1080.236268659742</v>
+        <v>1040.060512746685</v>
       </c>
       <c r="M35" t="n">
-        <v>1473.47543491283</v>
+        <v>1433.299678999773</v>
       </c>
       <c r="N35" t="n">
-        <v>1851.806793600545</v>
+        <v>1811.631037687489</v>
       </c>
       <c r="O35" t="n">
-        <v>2156.811378073379</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P35" t="n">
-        <v>2384.968274529433</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q35" t="n">
-        <v>2479.40052821597</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R35" t="n">
-        <v>2555.033718104288</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="S35" t="n">
-        <v>2535.611879242174</v>
+        <v>2535.611879242173</v>
       </c>
       <c r="T35" t="n">
-        <v>2479.060069480718</v>
+        <v>2479.060069480717</v>
       </c>
       <c r="U35" t="n">
         <v>2391.981869702243</v>
@@ -6977,10 +6977,10 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X35" t="n">
-        <v>1813.858934499876</v>
+        <v>1813.858934499875</v>
       </c>
       <c r="Y35" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C36" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D36" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E36" t="n">
         <v>482.8431151521678</v>
@@ -7008,10 +7008,10 @@
         <v>219.4208171253267</v>
       </c>
       <c r="H36" t="n">
-        <v>119.4829596720248</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I36" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J36" t="n">
         <v>111.3548208951919</v>
@@ -7032,34 +7032,34 @@
         <v>2095.166169042996</v>
       </c>
       <c r="P36" t="n">
-        <v>2397.262088318694</v>
+        <v>2397.262088318693</v>
       </c>
       <c r="Q36" t="n">
-        <v>2555.033718104288</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R36" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S36" t="n">
-        <v>2342.449962211974</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T36" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U36" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V36" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W36" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X36" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y36" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="37">
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.02211951749092</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C37" t="n">
-        <v>52.21328648670348</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="D37" t="n">
-        <v>52.21328648670348</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="E37" t="n">
-        <v>52.21328648670348</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F37" t="n">
-        <v>52.21328648670348</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G37" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H37" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I37" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J37" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K37" t="n">
-        <v>84.70486210672917</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L37" t="n">
         <v>185.3119415069887</v>
       </c>
       <c r="M37" t="n">
-        <v>303.3054476345904</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N37" t="n">
-        <v>421.7277893841908</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O37" t="n">
-        <v>520.1914358798805</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P37" t="n">
-        <v>583.1599196080183</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q37" t="n">
         <v>629.3786802696717</v>
@@ -7175,16 +7175,16 @@
         <v>287.5669931259238</v>
       </c>
       <c r="K38" t="n">
-        <v>692.175139661739</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.060512746685</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M38" t="n">
-        <v>1433.299678999773</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N38" t="n">
-        <v>1811.631037687489</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O38" t="n">
         <v>2116.635622160323</v>
@@ -7193,7 +7193,7 @@
         <v>2344.792518616376</v>
       </c>
       <c r="Q38" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R38" t="n">
         <v>2555.033718104287</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.02211951749089</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C40" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D40" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="E40" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="F40" t="n">
         <v>52.21328648670345</v>
@@ -7324,58 +7324,58 @@
         <v>51.10067436208573</v>
       </c>
       <c r="H40" t="n">
-        <v>59.36731927228438</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I40" t="n">
-        <v>82.50168994950198</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J40" t="n">
-        <v>97.31943502373917</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K40" t="n">
-        <v>130.9236227683826</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L40" t="n">
-        <v>231.5307021686421</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M40" t="n">
-        <v>349.5242082962438</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N40" t="n">
-        <v>467.9465500458442</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O40" t="n">
-        <v>566.4101965415339</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S40" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T40" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U40" t="n">
-        <v>398.7211345007348</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V40" t="n">
-        <v>305.7929665666896</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W40" t="n">
-        <v>187.443701591621</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X40" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.77035169433844</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1105.903313545651</v>
+        <v>1105.903313545653</v>
       </c>
       <c r="C41" t="n">
-        <v>868.7143491041893</v>
+        <v>859.778629007604</v>
       </c>
       <c r="D41" t="n">
-        <v>868.7143491041893</v>
+        <v>622.7637383639712</v>
       </c>
       <c r="E41" t="n">
-        <v>609.7377033394398</v>
+        <v>363.7870925992221</v>
       </c>
       <c r="F41" t="n">
-        <v>331.3955867787539</v>
+        <v>248.1128746356325</v>
       </c>
       <c r="G41" t="n">
-        <v>51.10067436208573</v>
+        <v>248.1128746356325</v>
       </c>
       <c r="H41" t="n">
         <v>51.10067436208573</v>
@@ -7409,34 +7409,34 @@
         <v>51.10067436208573</v>
       </c>
       <c r="J41" t="n">
-        <v>256.2056921888652</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K41" t="n">
-        <v>496.346064233648</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L41" t="n">
-        <v>844.2314373185943</v>
+        <v>756.5500378861368</v>
       </c>
       <c r="M41" t="n">
-        <v>1237.470603571682</v>
+        <v>1149.789204139225</v>
       </c>
       <c r="N41" t="n">
-        <v>1615.801962259398</v>
+        <v>1661.227036380914</v>
       </c>
       <c r="O41" t="n">
-        <v>1921.959731902489</v>
+        <v>1966.231620853748</v>
       </c>
       <c r="P41" t="n">
-        <v>2283.223101912516</v>
+        <v>2327.494990863775</v>
       </c>
       <c r="Q41" t="n">
-        <v>2510.761829153027</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="R41" t="n">
         <v>2555.033718104287</v>
       </c>
       <c r="S41" t="n">
-        <v>2503.613816863784</v>
+        <v>2503.613816863785</v>
       </c>
       <c r="T41" t="n">
         <v>2415.06394472394</v>
@@ -7448,13 +7448,13 @@
         <v>2094.817482592163</v>
       </c>
       <c r="W41" t="n">
-        <v>1868.091626578908</v>
+        <v>1868.091626578909</v>
       </c>
       <c r="X41" t="n">
-        <v>1621.870560229545</v>
+        <v>1621.870560229546</v>
       </c>
       <c r="Y41" t="n">
-        <v>1364.137778934527</v>
+        <v>1364.137778934528</v>
       </c>
     </row>
     <row r="42">
@@ -7482,7 +7482,7 @@
         <v>204.7081996652224</v>
       </c>
       <c r="H42" t="n">
-        <v>104.7703422119204</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I42" t="n">
         <v>51.10067436208573</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>200.1101256317379</v>
+        <v>200.1101256317365</v>
       </c>
       <c r="C43" t="n">
-        <v>166.303230222562</v>
+        <v>166.3032302225608</v>
       </c>
       <c r="D43" t="n">
-        <v>149.0404111794685</v>
+        <v>149.0404111794675</v>
       </c>
       <c r="E43" t="n">
-        <v>132.8404710699311</v>
+        <v>132.8404710699303</v>
       </c>
       <c r="F43" t="n">
-        <v>116.168890224852</v>
+        <v>116.1688902248514</v>
       </c>
       <c r="G43" t="n">
-        <v>83.0582157218458</v>
+        <v>83.05821572184539</v>
       </c>
       <c r="H43" t="n">
-        <v>59.49464463026341</v>
+        <v>59.49464463026321</v>
       </c>
       <c r="I43" t="n">
         <v>51.10067436208573</v>
       </c>
       <c r="J43" t="n">
-        <v>125.3450483780902</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K43" t="n">
-        <v>280.4958880582681</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L43" t="n">
-        <v>381.1029674585276</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M43" t="n">
-        <v>632.2029471401031</v>
+        <v>436.4119211885644</v>
       </c>
       <c r="N43" t="n">
-        <v>750.6252888897035</v>
+        <v>655.2892635892454</v>
       </c>
       <c r="O43" t="n">
-        <v>849.0889353853931</v>
+        <v>753.752910084935</v>
       </c>
       <c r="P43" t="n">
-        <v>1045.163892667505</v>
+        <v>949.8278673670468</v>
       </c>
       <c r="Q43" t="n">
-        <v>1045.163892667505</v>
+        <v>1045.163892667501</v>
       </c>
       <c r="R43" t="n">
-        <v>1031.451185411027</v>
+        <v>1031.451185411024</v>
       </c>
       <c r="S43" t="n">
-        <v>953.550496943858</v>
+        <v>953.5504969438551</v>
       </c>
       <c r="T43" t="n">
-        <v>856.1806178886806</v>
+        <v>856.1806178886779</v>
       </c>
       <c r="U43" t="n">
-        <v>704.7994525069242</v>
+        <v>704.7994525069217</v>
       </c>
       <c r="V43" t="n">
-        <v>579.8732221944906</v>
+        <v>579.8732221944883</v>
       </c>
       <c r="W43" t="n">
-        <v>429.5258948410334</v>
+        <v>429.5258948410315</v>
       </c>
       <c r="X43" t="n">
-        <v>334.082504865553</v>
+        <v>334.0825048655512</v>
       </c>
       <c r="Y43" t="n">
-        <v>247.8564201869739</v>
+        <v>247.8564201869723</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1105.903313545651</v>
+        <v>1105.903313545653</v>
       </c>
       <c r="C44" t="n">
-        <v>859.778629007602</v>
+        <v>859.7786290076037</v>
       </c>
       <c r="D44" t="n">
-        <v>622.7637383639694</v>
+        <v>622.7637383639712</v>
       </c>
       <c r="E44" t="n">
-        <v>363.7870925992202</v>
+        <v>526.4549911963181</v>
       </c>
       <c r="F44" t="n">
-        <v>363.7870925992202</v>
+        <v>248.1128746356325</v>
       </c>
       <c r="G44" t="n">
-        <v>285.1209992976929</v>
+        <v>248.1128746356325</v>
       </c>
       <c r="H44" t="n">
-        <v>88.10879902414595</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I44" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J44" t="n">
-        <v>256.2056921888652</v>
+        <v>168.5242927564078</v>
       </c>
       <c r="K44" t="n">
-        <v>629.4525377876218</v>
+        <v>408.6646648011906</v>
       </c>
       <c r="L44" t="n">
-        <v>977.337910872568</v>
+        <v>889.6565114401109</v>
       </c>
       <c r="M44" t="n">
-        <v>1370.577077125656</v>
+        <v>1416.002151247173</v>
       </c>
       <c r="N44" t="n">
-        <v>1748.908435813372</v>
+        <v>1794.333509934889</v>
       </c>
       <c r="O44" t="n">
-        <v>2053.913020286206</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P44" t="n">
-        <v>2283.223101912516</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q44" t="n">
-        <v>2510.761829153027</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R44" t="n">
         <v>2555.033718104287</v>
@@ -7685,13 +7685,13 @@
         <v>2094.817482592163</v>
       </c>
       <c r="W44" t="n">
-        <v>1868.091626578907</v>
+        <v>1868.091626578908</v>
       </c>
       <c r="X44" t="n">
-        <v>1621.870560229544</v>
+        <v>1621.870560229546</v>
       </c>
       <c r="Y44" t="n">
-        <v>1364.137778934526</v>
+        <v>1364.137778934528</v>
       </c>
     </row>
     <row r="45">
@@ -7707,19 +7707,19 @@
         <v>753.9971446449797</v>
       </c>
       <c r="D45" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E45" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F45" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G45" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H45" t="n">
-        <v>119.4829596720247</v>
+        <v>104.77034221192</v>
       </c>
       <c r="I45" t="n">
         <v>51.10067436208574</v>
@@ -7731,7 +7731,7 @@
         <v>340.8453734553806</v>
       </c>
       <c r="L45" t="n">
-        <v>706.6672186254962</v>
+        <v>706.6672186254963</v>
       </c>
       <c r="M45" t="n">
         <v>1191.700572135723</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>200.1101256317379</v>
+        <v>200.1101256317365</v>
       </c>
       <c r="C46" t="n">
-        <v>166.303230222562</v>
+        <v>166.3032302225608</v>
       </c>
       <c r="D46" t="n">
-        <v>149.0404111794685</v>
+        <v>149.0404111794675</v>
       </c>
       <c r="E46" t="n">
-        <v>132.8404710699311</v>
+        <v>132.8404710699303</v>
       </c>
       <c r="F46" t="n">
-        <v>116.168890224852</v>
+        <v>116.1688902248514</v>
       </c>
       <c r="G46" t="n">
-        <v>83.05821572184581</v>
+        <v>83.05821572184541</v>
       </c>
       <c r="H46" t="n">
-        <v>59.49464463026342</v>
+        <v>59.49464463026322</v>
       </c>
       <c r="I46" t="n">
         <v>51.10067436208574</v>
@@ -7807,49 +7807,49 @@
         <v>51.10067436208574</v>
       </c>
       <c r="K46" t="n">
-        <v>217.811335660703</v>
+        <v>217.8113356607032</v>
       </c>
       <c r="L46" t="n">
-        <v>451.5248886149363</v>
+        <v>418.8734157120432</v>
       </c>
       <c r="M46" t="n">
-        <v>569.518394742538</v>
+        <v>669.9733953936189</v>
       </c>
       <c r="N46" t="n">
-        <v>687.9407364921384</v>
+        <v>788.3957371432193</v>
       </c>
       <c r="O46" t="n">
-        <v>786.4043829878281</v>
+        <v>886.859383638909</v>
       </c>
       <c r="P46" t="n">
-        <v>949.8278673670503</v>
+        <v>949.8278673670468</v>
       </c>
       <c r="Q46" t="n">
-        <v>1045.163892667505</v>
+        <v>1045.163892667501</v>
       </c>
       <c r="R46" t="n">
-        <v>1031.451185411027</v>
+        <v>1031.451185411024</v>
       </c>
       <c r="S46" t="n">
-        <v>953.550496943858</v>
+        <v>953.5504969438551</v>
       </c>
       <c r="T46" t="n">
-        <v>856.1806178886806</v>
+        <v>856.1806178886779</v>
       </c>
       <c r="U46" t="n">
-        <v>704.7994525069242</v>
+        <v>704.7994525069217</v>
       </c>
       <c r="V46" t="n">
-        <v>579.8732221944906</v>
+        <v>579.8732221944883</v>
       </c>
       <c r="W46" t="n">
-        <v>429.5258948410335</v>
+        <v>429.5258948410315</v>
       </c>
       <c r="X46" t="n">
-        <v>334.0825048655531</v>
+        <v>334.0825048655512</v>
       </c>
       <c r="Y46" t="n">
-        <v>247.8564201869739</v>
+        <v>247.8564201869723</v>
       </c>
     </row>
   </sheetData>
@@ -7979,13 +7979,13 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
-        <v>265.7910027496216</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L2" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M2" t="n">
-        <v>584.3675935406823</v>
+        <v>428.7695599477884</v>
       </c>
       <c r="N2" t="n">
         <v>568.5510017355793</v>
@@ -8061,16 +8061,16 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
-        <v>482.0924488944969</v>
+        <v>467.133508621405</v>
       </c>
       <c r="M3" t="n">
-        <v>601.4906616692416</v>
+        <v>601.4906616692413</v>
       </c>
       <c r="N3" t="n">
-        <v>181.6013934535818</v>
+        <v>592.7219001753097</v>
       </c>
       <c r="O3" t="n">
-        <v>512.0210150597484</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P3" t="n">
         <v>414.0015992319183</v>
@@ -8219,10 +8219,10 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L5" t="n">
-        <v>387.361545322693</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M5" t="n">
-        <v>584.3675935406823</v>
+        <v>428.7695599477884</v>
       </c>
       <c r="N5" t="n">
         <v>568.5510017355793</v>
@@ -8295,16 +8295,16 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K6" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
-        <v>482.0924488944969</v>
+        <v>397.6134186686578</v>
       </c>
       <c r="M6" t="n">
-        <v>601.4906616692416</v>
+        <v>601.4906616692413</v>
       </c>
       <c r="N6" t="n">
-        <v>254.0447497915557</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
@@ -8529,7 +8529,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
         <v>343.8048081163522</v>
@@ -8538,7 +8538,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
-        <v>605.4165828749999</v>
+        <v>156.1797194573845</v>
       </c>
       <c r="N9" t="n">
         <v>623.1450866466196</v>
@@ -8547,10 +8547,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>184.992792701879</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8784,10 +8784,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>411.2804883663866</v>
       </c>
       <c r="Q12" t="n">
-        <v>270.379363191072</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>161.1972350770005</v>
+        <v>161.197235077</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9240,7 +9240,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>161.1972350770005</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9252,7 +9252,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>620.4239757810881</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9486,7 +9486,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>602.6954720094689</v>
+        <v>602.6954720094685</v>
       </c>
       <c r="N21" t="n">
         <v>623.1450866466196</v>
@@ -9714,7 +9714,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>161.1972350770005</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
@@ -9726,7 +9726,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>620.4239757810881</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -10680,10 +10680,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>414.0015992319188</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>273.1004740566032</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -11379,7 +11379,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>482.0924488944969</v>
+        <v>482.092448894497</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
@@ -11394,7 +11394,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>273.1004740566032</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.167080763684726</v>
       </c>
       <c r="D11" t="n">
-        <v>255.6655596168399</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>277.4076971867455</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>298.5127811721451</v>
       </c>
       <c r="H11" t="n">
-        <v>69.71407108835344</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>108.6851912980902</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>138.9063174149372</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>220.1793158548093</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>276.6729386146302</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>264.6842555723119</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>277.4076971867455</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>58.4581080658232</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.92652010774083</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>108.6851912980902</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>264.7796735655128</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>206.0276648401218</v>
       </c>
     </row>
     <row r="15">
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -25628,25 +25628,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>8.846362895621354</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>234.6447417371963</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>161.0412196111251</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>277.4919632925013</v>
       </c>
       <c r="H41" t="n">
-        <v>195.0420782708115</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>36.6380434154396</v>
+        <v>36.6380434154394</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25871,19 +25871,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>161.0412196111251</v>
       </c>
       <c r="F44" t="n">
-        <v>275.558695395079</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>199.6125309239895</v>
+        <v>277.4919632925013</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>36.6380434154394</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>635557.4481519591</v>
+        <v>635557.448151959</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>635557.4481519591</v>
+        <v>635557.448151959</v>
       </c>
     </row>
     <row r="4">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>607200.074615323</v>
+        <v>607200.0746153231</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>607200.074615323</v>
+        <v>607200.0746153231</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>729242.8574694727</v>
+      </c>
+      <c r="C2" t="n">
+        <v>729242.8574694727</v>
+      </c>
+      <c r="D2" t="n">
         <v>729242.8574694729</v>
       </c>
-      <c r="C2" t="n">
-        <v>729242.8574694728</v>
-      </c>
-      <c r="D2" t="n">
-        <v>729242.8574694727</v>
-      </c>
       <c r="E2" t="n">
-        <v>669264.8200417266</v>
+        <v>669264.8200417265</v>
       </c>
       <c r="F2" t="n">
-        <v>669264.8200417265</v>
+        <v>669264.8200417268</v>
       </c>
       <c r="G2" t="n">
+        <v>729242.8574694723</v>
+      </c>
+      <c r="H2" t="n">
         <v>729242.8574694726</v>
       </c>
-      <c r="H2" t="n">
-        <v>729242.8574694727</v>
-      </c>
       <c r="I2" t="n">
-        <v>729242.8574694727</v>
+        <v>729242.8574694723</v>
       </c>
       <c r="J2" t="n">
         <v>729242.8574694735</v>
       </c>
       <c r="K2" t="n">
-        <v>729242.8574694736</v>
+        <v>729242.8574694735</v>
       </c>
       <c r="L2" t="n">
-        <v>729242.8574694718</v>
+        <v>729242.8574694735</v>
       </c>
       <c r="M2" t="n">
-        <v>729242.857469473</v>
+        <v>729242.8574694732</v>
       </c>
       <c r="N2" t="n">
-        <v>729242.857469473</v>
+        <v>729242.8574694729</v>
       </c>
       <c r="O2" t="n">
-        <v>693310.4093352233</v>
+        <v>693310.4093352244</v>
       </c>
       <c r="P2" t="n">
-        <v>693310.4093352233</v>
+        <v>693310.409335224</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162872.0431324168</v>
+        <v>162872.0431324167</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12206.65382734962</v>
+        <v>12206.65382734972</v>
       </c>
       <c r="E3" t="n">
-        <v>124414.1789784653</v>
+        <v>124414.1789784652</v>
       </c>
       <c r="F3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>42301.35761456158</v>
+        <v>42301.35761456162</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>226255.5132049533</v>
+        <v>226255.5132049532</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>50434.7780265293</v>
+        <v>50434.7780265294</v>
       </c>
       <c r="M3" t="n">
-        <v>23340.27141740255</v>
+        <v>23340.27141740248</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>33785.73726635004</v>
+        <v>33785.73726635016</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>217824.7197831554</v>
+        <v>217824.7197831555</v>
       </c>
       <c r="C4" t="n">
-        <v>217824.7197831554</v>
+        <v>217824.7197831555</v>
       </c>
       <c r="D4" t="n">
         <v>208183.1070948236</v>
@@ -26436,7 +26436,7 @@
         <v>199038.105556554</v>
       </c>
       <c r="I4" t="n">
-        <v>199038.1055565539</v>
+        <v>199038.105556554</v>
       </c>
       <c r="J4" t="n">
         <v>199767.3414450235</v>
@@ -26448,16 +26448,16 @@
         <v>199556.8656253964</v>
       </c>
       <c r="M4" t="n">
-        <v>198982.8504522115</v>
+        <v>198982.8504522114</v>
       </c>
       <c r="N4" t="n">
         <v>198982.8504522114</v>
       </c>
       <c r="O4" t="n">
-        <v>177523.9746891824</v>
+        <v>177523.9746891825</v>
       </c>
       <c r="P4" t="n">
-        <v>177523.9746891824</v>
+        <v>177523.9746891825</v>
       </c>
     </row>
     <row r="5">
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63176.81095374218</v>
+        <v>63176.81095374216</v>
       </c>
       <c r="C5" t="n">
-        <v>63176.81095374218</v>
+        <v>63176.81095374216</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>48330.69016429015</v>
+        <v>48330.69016429014</v>
       </c>
       <c r="F5" t="n">
-        <v>48330.69016429015</v>
+        <v>48330.69016429014</v>
       </c>
       <c r="G5" t="n">
-        <v>52775.98120591338</v>
+        <v>52775.98120591337</v>
       </c>
       <c r="H5" t="n">
-        <v>52775.98120591338</v>
+        <v>52775.98120591337</v>
       </c>
       <c r="I5" t="n">
-        <v>52775.98120591338</v>
+        <v>52775.98120591337</v>
       </c>
       <c r="J5" t="n">
         <v>58740.88327108059</v>
@@ -26497,19 +26497,19 @@
         <v>58740.88327108059</v>
       </c>
       <c r="L5" t="n">
-        <v>57206.37023867852</v>
+        <v>57206.3702386785</v>
       </c>
       <c r="M5" t="n">
-        <v>52802.81689264638</v>
+        <v>52802.81689264637</v>
       </c>
       <c r="N5" t="n">
         <v>52802.81689264637</v>
       </c>
       <c r="O5" t="n">
-        <v>50139.67223761851</v>
+        <v>50139.67223761853</v>
       </c>
       <c r="P5" t="n">
-        <v>50139.67223761852</v>
+        <v>50139.67223761854</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>285369.2836001586</v>
+        <v>285369.2836001583</v>
       </c>
       <c r="C6" t="n">
-        <v>448241.3267325753</v>
+        <v>448241.326732575</v>
       </c>
       <c r="D6" t="n">
-        <v>443287.0619103881</v>
+        <v>443287.0619103882</v>
       </c>
       <c r="E6" t="n">
-        <v>333281.0311915912</v>
+        <v>333123.1942509917</v>
       </c>
       <c r="F6" t="n">
-        <v>457695.2101700563</v>
+        <v>457537.3732294574</v>
       </c>
       <c r="G6" t="n">
-        <v>435127.4130924437</v>
+        <v>435127.4130924435</v>
       </c>
       <c r="H6" t="n">
-        <v>477428.7707070054</v>
+        <v>477428.7707070053</v>
       </c>
       <c r="I6" t="n">
-        <v>477428.7707070054</v>
+        <v>477428.7707070051</v>
       </c>
       <c r="J6" t="n">
-        <v>244479.1195484161</v>
+        <v>244479.1195484163</v>
       </c>
       <c r="K6" t="n">
         <v>470734.6327533695</v>
       </c>
       <c r="L6" t="n">
-        <v>422044.8435788676</v>
+        <v>422044.8435788692</v>
       </c>
       <c r="M6" t="n">
-        <v>454116.9187072127</v>
+        <v>454116.918707213</v>
       </c>
       <c r="N6" t="n">
         <v>477457.1901246152</v>
       </c>
       <c r="O6" t="n">
-        <v>431861.0251420723</v>
+        <v>431766.4660680357</v>
       </c>
       <c r="P6" t="n">
-        <v>465646.7624084224</v>
+        <v>465552.2033343854</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>113.4301655082087</v>
       </c>
       <c r="G2" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="H2" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="I2" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="J2" t="n">
         <v>126.7869503557441</v>
@@ -26713,7 +26713,7 @@
         <v>126.7869503557441</v>
       </c>
       <c r="L2" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="M2" t="n">
         <v>166.1290651424569</v>
@@ -26722,10 +26722,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="O2" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="P2" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
     </row>
     <row r="3">
@@ -26787,40 +26787,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>486.0067591076017</v>
+        <v>486.0067591076014</v>
       </c>
       <c r="C4" t="n">
-        <v>486.0067591076017</v>
+        <v>486.0067591076014</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>638.0712102003381</v>
+        <v>638.071210200338</v>
       </c>
       <c r="F4" t="n">
-        <v>638.0712102003381</v>
+        <v>638.071210200338</v>
       </c>
       <c r="G4" t="n">
-        <v>638.0712102003381</v>
+        <v>638.071210200338</v>
       </c>
       <c r="H4" t="n">
-        <v>638.0712102003381</v>
+        <v>638.071210200338</v>
       </c>
       <c r="I4" t="n">
-        <v>638.0712102003381</v>
+        <v>638.071210200338</v>
       </c>
       <c r="J4" t="n">
-        <v>790.8228806188083</v>
+        <v>790.8228806188082</v>
       </c>
       <c r="K4" t="n">
-        <v>790.8228806188083</v>
+        <v>790.8228806188082</v>
       </c>
       <c r="L4" t="n">
-        <v>751.5264384614197</v>
+        <v>751.5264384614194</v>
       </c>
       <c r="M4" t="n">
-        <v>638.758429526072</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="N4" t="n">
         <v>638.7584295260716</v>
@@ -26917,10 +26917,10 @@
         <v>113.4301655082087</v>
       </c>
       <c r="F2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>52.87669701820198</v>
+        <v>52.87669701820202</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.91025333754214</v>
+        <v>73.91025333754209</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>63.04347253316162</v>
+        <v>63.04347253316175</v>
       </c>
       <c r="M2" t="n">
-        <v>29.17533927175319</v>
+        <v>29.1753392717531</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>42.23217158293755</v>
+        <v>42.2321715829377</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>486.0067591076017</v>
+        <v>486.0067591076014</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>39.29644215738858</v>
+        <v>39.29644215738892</v>
       </c>
       <c r="E4" t="n">
-        <v>112.7680089353478</v>
+        <v>112.7680089353477</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.758429526072</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>113.4301655082087</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>52.87669701820198</v>
+        <v>52.87669701820202</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>73.91025333754214</v>
+        <v>73.91025333754209</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>486.0067591076017</v>
+        <v>486.0067591076014</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>39.29644215738858</v>
+        <v>39.29644215738892</v>
       </c>
       <c r="M4" t="n">
-        <v>112.7680089353478</v>
+        <v>112.7680089353477</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>248.1339675327825</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>346.9647876756743</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>145.5577298436975</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>37.38466865781677</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27521,10 +27521,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>45.68662010460136</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -27540,13 +27540,13 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
-        <v>66.0621997239693</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
         <v>167.2305511458285</v>
@@ -27558,7 +27558,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>148.0265635717656</v>
@@ -27588,19 +27588,19 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>229.3283696525923</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>219.8148072196457</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
         <v>378.1144210805207</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>217.3806499982534</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>332.6971288630165</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27746,13 +27746,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>74.65133498349019</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>238.9027100790231</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>163.312750669951</v>
       </c>
     </row>
     <row r="7">
@@ -27780,16 +27780,16 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
-        <v>99.71558964164922</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
         <v>142.7610139533483</v>
@@ -27819,13 +27819,13 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>135.4299118985452</v>
       </c>
       <c r="S7" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>284.3183371157911</v>
@@ -27834,7 +27834,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>228.939939463578</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
@@ -27865,7 +27865,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>341.6998531376354</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>237.1500269824789</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27932,25 +27932,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>98.13922823396038</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>49.32288970647717</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -27992,7 +27992,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>93.47784511364529</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
         <v>157.7789187685189</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>189.0241322230513</v>
       </c>
       <c r="T10" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
@@ -28117,22 +28117,22 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="M11" t="n">
-        <v>82.52699415835338</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="N11" t="n">
+        <v>82.52699415835315</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>113.4301655082087</v>
-      </c>
-      <c r="O11" t="n">
-        <v>113.4301655082087</v>
-      </c>
-      <c r="P11" t="n">
-        <v>113.4301655082087</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>113.4301655082087</v>
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>17.23245204481119</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28220,7 +28220,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>17.23245204481114</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -28354,14 +28354,14 @@
         <v>113.4301655082087</v>
       </c>
       <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>113.4301655082087</v>
       </c>
-      <c r="M14" t="n">
-        <v>82.52699415835383</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
@@ -28369,7 +28369,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>82.52699415835346</v>
       </c>
       <c r="R14" t="n">
         <v>113.4301655082087</v>
@@ -28418,13 +28418,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>17.23245204481077</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>17.23245204481119</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28524,7 +28524,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="P16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.430165508209</v>
       </c>
       <c r="Q16" t="n">
         <v>113.4301655082087</v>
@@ -28561,31 +28561,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="C17" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="D17" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="E17" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="F17" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="G17" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="H17" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="I17" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="J17" t="n">
-        <v>37.3270686119567</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -28594,7 +28594,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>113.9020274992617</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -28603,34 +28603,34 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="Q17" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="R17" t="n">
-        <v>166.3068625264107</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="T17" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="U17" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="V17" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="W17" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="X17" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="Y17" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
     </row>
     <row r="18">
@@ -28655,7 +28655,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>17.23245204481121</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>17.23245204481075</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="C19" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="D19" t="n">
-        <v>166.3068625264107</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
-        <v>162.3144797753525</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="H19" t="n">
-        <v>157.7789187685189</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="I19" t="n">
-        <v>142.7610139533483</v>
+        <v>145.4733000584799</v>
       </c>
       <c r="J19" t="n">
         <v>59.456666199969</v>
@@ -28767,28 +28767,28 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R19" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="S19" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="T19" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="U19" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="V19" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="W19" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="X19" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="Y19" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
     </row>
     <row r="20">
@@ -28798,34 +28798,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="C20" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="D20" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="E20" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="F20" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="G20" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="H20" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="I20" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="J20" t="n">
-        <v>166.3068625264107</v>
+        <v>113.9020274992618</v>
       </c>
       <c r="K20" t="n">
-        <v>166.3068625264107</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28834,40 +28834,40 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="Q20" t="n">
-        <v>37.32706861195666</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>166.3068625264107</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="T20" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="U20" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="V20" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="W20" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="X20" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="Y20" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
     </row>
     <row r="21">
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>17.23245204481119</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>17.23245204481075</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="C22" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28968,10 +28968,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>151.8982916643722</v>
       </c>
       <c r="G22" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="H22" t="n">
         <v>157.7789187685189</v>
@@ -28995,37 +28995,37 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>44.87154291959908</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>38.15196793284785</v>
+        <v>82.08106761255497</v>
       </c>
       <c r="R22" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="T22" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="U22" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="V22" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="W22" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="X22" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="Y22" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
     </row>
     <row r="23">
@@ -29035,37 +29035,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="C23" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="D23" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="E23" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="F23" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="G23" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="H23" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="I23" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>113.9020274992617</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>37.32706861195675</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -29074,37 +29074,37 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>166.3068625264107</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>166.3068625264107</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="T23" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="U23" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="V23" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="W23" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="X23" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="Y23" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
     </row>
     <row r="24">
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>17.23245204481119</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29168,7 +29168,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>17.23245204481114</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -29193,25 +29193,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="C25" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>151.4313673361859</v>
       </c>
       <c r="F25" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="H25" t="n">
-        <v>157.7789187685189</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="I25" t="n">
         <v>142.7610139533483</v>
@@ -29229,40 +29229,40 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>44.87154291959912</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>17.12085696717016</v>
       </c>
       <c r="Q25" t="n">
         <v>38.15196793284785</v>
       </c>
       <c r="R25" t="n">
-        <v>148.0265635717656</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="S25" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="T25" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="U25" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="V25" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="W25" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="X25" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
       <c r="Y25" t="n">
-        <v>166.3068625264107</v>
+        <v>166.3068625264108</v>
       </c>
     </row>
     <row r="26">
@@ -29372,7 +29372,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>14.56549128550334</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29405,7 +29405,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>14.56549128550355</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -29454,10 +29454,10 @@
         <v>126.7869503557441</v>
       </c>
       <c r="J28" t="n">
+        <v>59.456666199969</v>
+      </c>
+      <c r="K28" t="n">
         <v>126.7869503557441</v>
-      </c>
-      <c r="K28" t="n">
-        <v>17.30689742565915</v>
       </c>
       <c r="L28" t="n">
         <v>126.7869503557441</v>
@@ -29466,13 +29466,13 @@
         <v>126.7869503557441</v>
       </c>
       <c r="N28" t="n">
+        <v>84.63718158143446</v>
+      </c>
+      <c r="O28" t="n">
         <v>126.7869503557441</v>
       </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
       <c r="P28" t="n">
-        <v>126.7869503557441</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>38.15196793284785</v>
@@ -29606,7 +29606,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>14.56549128550336</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -29694,25 +29694,25 @@
         <v>126.7869503557441</v>
       </c>
       <c r="K31" t="n">
-        <v>126.7869503557441</v>
+        <v>55.4588653585072</v>
       </c>
       <c r="L31" t="n">
         <v>126.7869503557441</v>
       </c>
       <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>126.7869503557441</v>
       </c>
-      <c r="N31" t="n">
+      <c r="P31" t="n">
         <v>126.7869503557441</v>
       </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>17.3068974256594</v>
-      </c>
       <c r="Q31" t="n">
-        <v>38.15196793284785</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="R31" t="n">
         <v>126.7869503557441</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="C32" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="D32" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="E32" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="F32" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="G32" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="H32" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="J32" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="K32" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="L32" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="M32" t="n">
-        <v>136.9537258707037</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="O32" t="n">
-        <v>26.8084385138792</v>
+        <v>26.80843851387692</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="Q32" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="R32" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="S32" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="T32" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="U32" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="V32" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="W32" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="X32" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="Y32" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
     </row>
     <row r="33">
@@ -29837,7 +29837,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -29904,37 +29904,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="C34" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="D34" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="E34" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="F34" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="G34" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="H34" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="I34" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="J34" t="n">
-        <v>136.9537258707037</v>
+        <v>112.5612036926958</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -29943,37 +29943,37 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>112.5612036926973</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="Q34" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="R34" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="S34" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="T34" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="U34" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="V34" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="W34" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="X34" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
       <c r="Y34" t="n">
-        <v>136.9537258707037</v>
+        <v>136.9537258707038</v>
       </c>
     </row>
     <row r="35">
@@ -30010,11 +30010,11 @@
         <v>166.1290651424569</v>
       </c>
       <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L35" t="n">
-        <v>40.58157162935021</v>
-      </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
@@ -30025,7 +30025,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>40.58157162934918</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -30071,7 +30071,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>14.56549128550375</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -30116,7 +30116,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>14.5654912855031</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>46.68561682995298</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>84.83758476280077</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R37" t="n">
         <v>148.0265635717656</v>
@@ -30247,28 +30247,28 @@
         <v>166.1290651424569</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>40.5815716293491</v>
+        <v>116.9787331327008</v>
       </c>
       <c r="R38" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
         <v>166.1290651424569</v>
@@ -30390,19 +30390,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>152.0796990554076</v>
       </c>
       <c r="G40" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H40" t="n">
-        <v>166.1290651424569</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I40" t="n">
-        <v>166.1290651424569</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J40" t="n">
-        <v>74.42408546687525</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30420,7 +30420,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>45.56176619902594</v>
       </c>
       <c r="Q40" t="n">
         <v>38.15196793284785</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="C41" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="D41" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="E41" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="F41" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="G41" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="H41" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="I41" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="J41" t="n">
-        <v>134.4509833878523</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>45.88391325405701</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="O41" t="n">
-        <v>1.164833505310241</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="Q41" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="R41" t="n">
-        <v>134.4509833878523</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="T41" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="U41" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="V41" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="W41" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="X41" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="Y41" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
     </row>
     <row r="42">
@@ -30554,10 +30554,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="I42" t="n">
-        <v>14.56549128550325</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="C43" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="D43" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="E43" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="F43" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="G43" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="H43" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="I43" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="J43" t="n">
-        <v>134.4509833878523</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K43" t="n">
-        <v>122.7743958944792</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>101.4696976273541</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="Q43" t="n">
-        <v>38.15196793284785</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="R43" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="S43" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="T43" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="U43" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="V43" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="W43" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="X43" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="Y43" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
     </row>
     <row r="44">
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="C44" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="D44" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="E44" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="F44" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="G44" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="H44" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="I44" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="J44" t="n">
-        <v>134.4509833878523</v>
+        <v>45.88391325405702</v>
       </c>
       <c r="K44" t="n">
-        <v>134.4509833878523</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="P44" t="n">
-        <v>1.164833505310298</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>134.4509833878523</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>134.4509833878523</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="T44" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="U44" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="V44" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="W44" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="X44" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="Y44" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
     </row>
     <row r="45">
@@ -30779,7 +30779,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>14.5654912855037</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>14.56549128550371</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30852,40 +30852,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="C46" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="D46" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="E46" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="F46" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="G46" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="H46" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="I46" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="J46" t="n">
         <v>59.456666199969</v>
       </c>
       <c r="K46" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="L46" t="n">
-        <v>134.4509833878523</v>
+        <v>101.4696976273541</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30894,34 +30894,34 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>101.4696976273581</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="R46" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="S46" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="T46" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="U46" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="V46" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="W46" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="X46" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
       <c r="Y46" t="n">
-        <v>134.4509833878523</v>
+        <v>134.4509833878525</v>
       </c>
     </row>
   </sheetData>
@@ -34699,13 +34699,13 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
-        <v>86.96799877557488</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L2" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M2" t="n">
-        <v>397.2112790435232</v>
+        <v>241.6132454506293</v>
       </c>
       <c r="N2" t="n">
         <v>382.1528875633492</v>
@@ -34781,16 +34781,16 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
-        <v>369.5170153233491</v>
+        <v>354.5580750502572</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0067591076017</v>
+        <v>486.0067591076014</v>
       </c>
       <c r="N3" t="n">
-        <v>74.88625238587348</v>
+        <v>486.0067591076014</v>
       </c>
       <c r="O3" t="n">
-        <v>396.1615664486372</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>305.147393207775</v>
@@ -34939,10 +34939,10 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L5" t="n">
-        <v>195.8013331595784</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M5" t="n">
-        <v>397.2112790435232</v>
+        <v>241.6132454506293</v>
       </c>
       <c r="N5" t="n">
         <v>382.1528875633492</v>
@@ -35015,16 +35015,16 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
-        <v>369.5170153233491</v>
+        <v>285.03798509751</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0067591076017</v>
+        <v>486.0067591076014</v>
       </c>
       <c r="N6" t="n">
-        <v>147.3296087238474</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
         <v>231.8086389496855</v>
@@ -35258,7 +35258,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
-        <v>489.93268031336</v>
+        <v>40.69581689574456</v>
       </c>
       <c r="N9" t="n">
         <v>516.4299455789112</v>
@@ -35267,10 +35267,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>76.13858667773572</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,22 +35413,22 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L11" t="n">
-        <v>351.3993667524709</v>
+        <v>464.8295322606797</v>
       </c>
       <c r="M11" t="n">
-        <v>479.7382732018766</v>
+        <v>510.6414445517319</v>
       </c>
       <c r="N11" t="n">
-        <v>495.583053071558</v>
+        <v>464.6798817217024</v>
       </c>
       <c r="O11" t="n">
-        <v>421.5156043696572</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P11" t="n">
-        <v>343.8916770799797</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q11" t="n">
-        <v>95.38611483488586</v>
+        <v>208.8162803430946</v>
       </c>
       <c r="R11" t="n">
         <v>23.69826186910355</v>
@@ -35504,10 +35504,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P12" t="n">
-        <v>305.147393207775</v>
+        <v>302.4262823422433</v>
       </c>
       <c r="Q12" t="n">
-        <v>156.6441717461795</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,16 +35647,16 @@
         <v>186.155967803972</v>
       </c>
       <c r="K14" t="n">
-        <v>355.9961978766762</v>
+        <v>355.9961978766761</v>
       </c>
       <c r="L14" t="n">
-        <v>464.8295322606797</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M14" t="n">
-        <v>479.738273201877</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N14" t="n">
-        <v>382.1528875633492</v>
+        <v>495.583053071558</v>
       </c>
       <c r="O14" t="n">
         <v>308.0854388614484</v>
@@ -35665,10 +35665,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q14" t="n">
-        <v>95.38611483488586</v>
+        <v>177.9131089932393</v>
       </c>
       <c r="R14" t="n">
-        <v>23.69826186910356</v>
+        <v>23.69826186910355</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>58.14166341033378</v>
+        <v>58.14166341033333</v>
       </c>
       <c r="K15" t="n">
         <v>231.8086389496855</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>53.97349930823975</v>
+        <v>53.97349930823973</v>
       </c>
       <c r="K16" t="n">
         <v>147.373789492697</v>
@@ -35820,10 +35820,10 @@
         <v>212.8883942917337</v>
       </c>
       <c r="P16" t="n">
-        <v>177.0346945265297</v>
+        <v>177.03469452653</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.27819757536089</v>
+        <v>75.27819757536088</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>110.05287090772</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K17" t="n">
         <v>242.5660323684674</v>
@@ -35890,7 +35890,7 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M17" t="n">
-        <v>397.2112790435232</v>
+        <v>511.1133065427849</v>
       </c>
       <c r="N17" t="n">
         <v>382.1528875633492</v>
@@ -35905,7 +35905,7 @@
         <v>261.6929773612966</v>
       </c>
       <c r="R17" t="n">
-        <v>76.57495888730554</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>58.14166341033378</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K18" t="n">
         <v>231.8086389496855</v>
@@ -35972,7 +35972,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N18" t="n">
-        <v>516.4299455789112</v>
+        <v>513.7088347133797</v>
       </c>
       <c r="O18" t="n">
         <v>396.1615664486372</v>
@@ -36021,22 +36021,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>14.76568828589583</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>11.82555567905815</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>15.3510141019301</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>8.527943757891848</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2.712286105131674</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -36063,7 +36063,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>18.28029895464516</v>
+        <v>18.28029895464519</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>239.032664822174</v>
+        <v>186.6278297950251</v>
       </c>
       <c r="K20" t="n">
-        <v>408.8728948948782</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L20" t="n">
         <v>351.3993667524709</v>
@@ -36130,19 +36130,19 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N20" t="n">
-        <v>382.1528875633492</v>
+        <v>548.45975008976</v>
       </c>
       <c r="O20" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P20" t="n">
-        <v>230.4615115717709</v>
+        <v>396.7683740981817</v>
       </c>
       <c r="Q20" t="n">
-        <v>132.7131834468425</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R20" t="n">
-        <v>76.57495888730554</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M21" t="n">
-        <v>487.2115694478289</v>
+        <v>487.2115694478286</v>
       </c>
       <c r="N21" t="n">
         <v>516.4299455789112</v>
@@ -36264,7 +36264,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.942443239891574</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -36291,13 +36291,13 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O22" t="n">
-        <v>144.329771703124</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P22" t="n">
         <v>63.604529018321</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>43.92909967970712</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>72.72580229576329</v>
+        <v>186.627829795025</v>
       </c>
       <c r="K23" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L23" t="n">
-        <v>388.7264353644277</v>
+        <v>517.7062292788817</v>
       </c>
       <c r="M23" t="n">
         <v>397.2112790435232</v>
@@ -36376,10 +36376,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q23" t="n">
-        <v>261.6929773612966</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R23" t="n">
-        <v>76.57495888730554</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>58.14166341033378</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K24" t="n">
         <v>231.8086389496855</v>
@@ -36446,7 +36446,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N24" t="n">
-        <v>516.4299455789112</v>
+        <v>513.7088347133797</v>
       </c>
       <c r="O24" t="n">
         <v>396.1615664486372</v>
@@ -36498,7 +36498,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.942443239891574</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -36507,7 +36507,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>8.527943757891848</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -36525,19 +36525,19 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N25" t="n">
-        <v>164.4900699393975</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O25" t="n">
         <v>99.45822878352493</v>
       </c>
       <c r="P25" t="n">
-        <v>63.604529018321</v>
+        <v>80.72538598549116</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>18.28029895464519</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>222.17306519063</v>
       </c>
       <c r="R26" t="n">
-        <v>37.05504671663894</v>
+        <v>37.05504671663893</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>67.33028415577513</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>51.25052141014745</v>
+        <v>160.7305743402324</v>
       </c>
       <c r="L28" t="n">
-        <v>228.4102628812588</v>
+        <v>228.4102628812587</v>
       </c>
       <c r="M28" t="n">
         <v>245.9723100805944</v>
       </c>
       <c r="N28" t="n">
-        <v>246.4054773755425</v>
+        <v>204.2557086012328</v>
       </c>
       <c r="O28" t="n">
-        <v>99.45822878352493</v>
+        <v>226.2451791392691</v>
       </c>
       <c r="P28" t="n">
-        <v>190.3914793740651</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>67.3302841557751</v>
       </c>
       <c r="K31" t="n">
-        <v>160.7305743402324</v>
+        <v>89.40248934299549</v>
       </c>
       <c r="L31" t="n">
         <v>228.4102628812587</v>
       </c>
       <c r="M31" t="n">
-        <v>245.9723100805944</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N31" t="n">
-        <v>246.4054773755425</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O31" t="n">
-        <v>99.45822878352493</v>
+        <v>226.2451791392691</v>
       </c>
       <c r="P31" t="n">
-        <v>80.9114264439804</v>
+        <v>190.3914793740651</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>88.63498242289626</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>209.679528166467</v>
+        <v>209.6795281664671</v>
       </c>
       <c r="K32" t="n">
-        <v>379.5197582391712</v>
+        <v>379.5197582391713</v>
       </c>
       <c r="L32" t="n">
-        <v>488.3530926231747</v>
+        <v>488.3530926231748</v>
       </c>
       <c r="M32" t="n">
-        <v>534.165004914227</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N32" t="n">
-        <v>519.106613434053</v>
+        <v>519.1066134340531</v>
       </c>
       <c r="O32" t="n">
-        <v>334.8938773753276</v>
+        <v>334.8938773753254</v>
       </c>
       <c r="P32" t="n">
-        <v>230.4615115717709</v>
+        <v>367.4152374424748</v>
       </c>
       <c r="Q32" t="n">
-        <v>232.3398407055896</v>
+        <v>232.3398407055897</v>
       </c>
       <c r="R32" t="n">
-        <v>47.22182223159857</v>
+        <v>47.22182223159865</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>77.49705967073476</v>
+        <v>53.10453749272683</v>
       </c>
       <c r="K34" t="n">
         <v>33.9436239844883</v>
       </c>
       <c r="L34" t="n">
-        <v>101.6233125255146</v>
+        <v>238.5770383962185</v>
       </c>
       <c r="M34" t="n">
         <v>119.1853597248502</v>
@@ -37239,13 +37239,13 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O34" t="n">
-        <v>212.0194324762223</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P34" t="n">
-        <v>200.5582548890247</v>
+        <v>200.5582548890249</v>
       </c>
       <c r="Q34" t="n">
-        <v>98.8017579378559</v>
+        <v>98.80175793785598</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,10 +37306,10 @@
         <v>238.8548674382202</v>
       </c>
       <c r="K35" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L35" t="n">
-        <v>391.9809383818211</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M35" t="n">
         <v>397.2112790435232</v>
@@ -37321,7 +37321,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P35" t="n">
-        <v>230.4615115717709</v>
+        <v>271.0430832011201</v>
       </c>
       <c r="Q35" t="n">
         <v>95.38611483488586</v>
@@ -37400,10 +37400,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P36" t="n">
-        <v>305.1473932077755</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117107</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M37" t="n">
-        <v>119.1853597248502</v>
+        <v>165.8709765548032</v>
       </c>
       <c r="N37" t="n">
         <v>119.6185270197983</v>
@@ -37482,7 +37482,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.68561682995292</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>238.8548674382202</v>
       </c>
       <c r="K38" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L38" t="n">
         <v>351.3993667524709</v>
@@ -37555,16 +37555,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O38" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P38" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q38" t="n">
-        <v>135.967686464235</v>
+        <v>212.3648479675866</v>
       </c>
       <c r="R38" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37686,19 +37686,19 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>8.350146373938031</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>23.36805118910868</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>14.96741926690626</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>33.9436239844883</v>
@@ -37716,7 +37716,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P40" t="n">
-        <v>63.604529018321</v>
+        <v>109.1662952173469</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>207.1767856836156</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K41" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
-        <v>351.3993667524709</v>
+        <v>397.2832800065279</v>
       </c>
       <c r="M41" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N41" t="n">
-        <v>382.1528875633492</v>
+        <v>516.6038709512018</v>
       </c>
       <c r="O41" t="n">
-        <v>309.2502723667587</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P41" t="n">
-        <v>364.9124949596232</v>
+        <v>364.9124949596235</v>
       </c>
       <c r="Q41" t="n">
-        <v>229.8370982227382</v>
+        <v>229.8370982227384</v>
       </c>
       <c r="R41" t="n">
-        <v>44.71907974874716</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>74.99431718788335</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>156.7180198789675</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L43" t="n">
         <v>101.6233125255146</v>
       </c>
       <c r="M43" t="n">
-        <v>253.6363431127026</v>
+        <v>253.6363431127028</v>
       </c>
       <c r="N43" t="n">
-        <v>119.6185270197983</v>
+        <v>221.0882246471525</v>
       </c>
       <c r="O43" t="n">
         <v>99.45822878352493</v>
       </c>
       <c r="P43" t="n">
-        <v>198.0555124061734</v>
+        <v>198.0555124061735</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>96.29901545500469</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>207.1767856836156</v>
+        <v>118.6097155498203</v>
       </c>
       <c r="K44" t="n">
-        <v>377.0170157563198</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L44" t="n">
-        <v>351.3993667524709</v>
+        <v>485.8503501403235</v>
       </c>
       <c r="M44" t="n">
-        <v>397.2112790435232</v>
+        <v>531.6622624313757</v>
       </c>
       <c r="N44" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
-        <v>308.0854388614484</v>
+        <v>442.536422249301</v>
       </c>
       <c r="P44" t="n">
-        <v>231.6263450770812</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q44" t="n">
-        <v>229.8370982227382</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R44" t="n">
-        <v>44.71907974874716</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L45" t="n">
-        <v>369.5170153233491</v>
+        <v>369.5170153233492</v>
       </c>
       <c r="M45" t="n">
         <v>489.93268031336</v>
@@ -38114,7 +38114,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.3652826117107</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,13 +38175,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>168.3946073723407</v>
+        <v>168.3946073723408</v>
       </c>
       <c r="L46" t="n">
-        <v>236.074295913367</v>
+        <v>203.0930101528687</v>
       </c>
       <c r="M46" t="n">
-        <v>119.1853597248502</v>
+        <v>253.6363431127028</v>
       </c>
       <c r="N46" t="n">
         <v>119.6185270197983</v>
@@ -38190,10 +38190,10 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P46" t="n">
-        <v>165.0742266456791</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.29901545500449</v>
+        <v>96.29901545500469</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
